--- a/debt.xlsx
+++ b/debt.xlsx
@@ -1,23 +1,271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785B241-095C-4B08-81D9-9C9446F546CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="借款统计" sheetId="1" r:id="rId1"/>
+    <sheet name="还款日历" sheetId="2" r:id="rId2"/>
+    <sheet name="还款计划" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单期金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍贷(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近还款日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍贷(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上金融(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上金融(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上金融(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上金融(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久富万卡(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久富万卡(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久富万卡(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小赢卡贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单期利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你我贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安普惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用星球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒贷(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒贷(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度-尊享贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度-满易贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度-教育贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪银(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪银(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪银(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪银(4)</t>
+  </si>
+  <si>
+    <t>闪银(5)</t>
+  </si>
+  <si>
+    <t>闪银(6)</t>
+  </si>
+  <si>
+    <t>闪银(7)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,21 +281,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -56,9 +341,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -69,6 +381,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -117,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +465,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,6 +517,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,15 +709,1439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="7" width="9" style="6"/>
+    <col min="8" max="11" width="9" style="4"/>
+    <col min="12" max="22" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>946</v>
+      </c>
+      <c r="D2" s="5">
+        <v>101.72</v>
+      </c>
+      <c r="E2" s="5">
+        <f>F2*I2</f>
+        <v>174.62</v>
+      </c>
+      <c r="F2" s="5">
+        <v>174.62</v>
+      </c>
+      <c r="G2" s="5">
+        <f>D2/H2</f>
+        <v>16.953333333333333</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6714</v>
+      </c>
+      <c r="D3" s="5">
+        <v>826.68</v>
+      </c>
+      <c r="E3" s="5">
+        <f>F3*I3</f>
+        <v>2513.56</v>
+      </c>
+      <c r="F3" s="5">
+        <v>628.39</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G13" si="0">D3/H3</f>
+        <v>68.89</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>997.2</v>
+      </c>
+      <c r="E4" s="5">
+        <f>F4*I4</f>
+        <v>4332.3999999999996</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1083.0999999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>83.100000000000009</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2200</v>
+      </c>
+      <c r="D5" s="5">
+        <v>97.28</v>
+      </c>
+      <c r="E5" s="5">
+        <f>F5*I5</f>
+        <v>1148.6399999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>382.88</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>16.213333333333335</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>141.46</v>
+      </c>
+      <c r="E6" s="5">
+        <f>F6*I6</f>
+        <v>2784.5499999999997</v>
+      </c>
+      <c r="F6" s="5">
+        <v>556.91</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>23.576666666666668</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>177.84</v>
+      </c>
+      <c r="E7" s="5">
+        <f>F7*I7</f>
+        <v>3177.84</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1059.28</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>59.28</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>660.63</v>
+      </c>
+      <c r="E8" s="5">
+        <f>F8*I8</f>
+        <v>1220.21</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1220.21</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>220.21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2785.04</v>
+      </c>
+      <c r="E9" s="5">
+        <f>F9*I9</f>
+        <v>2128.84</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1064.42</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>232.08666666666667</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2064.04</v>
+      </c>
+      <c r="E10" s="5">
+        <f>F10*I10</f>
+        <v>1838.67</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1838.67</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>172.00333333333333</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3454.92</v>
+      </c>
+      <c r="E11" s="5">
+        <f>F11*I11</f>
+        <v>3459.7000000000003</v>
+      </c>
+      <c r="F11" s="5">
+        <v>691.94</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>191.94</v>
+      </c>
+      <c r="H11" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7199.2</v>
+      </c>
+      <c r="E12" s="5">
+        <f>F12*I12</f>
+        <v>15866.199999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2266.6</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>599.93333333333328</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2512.92</v>
+      </c>
+      <c r="E13" s="5">
+        <f>F13*I13</f>
+        <v>3497.0499999999997</v>
+      </c>
+      <c r="F13" s="5">
+        <v>699.41</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>209.41</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>21</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1415</v>
+      </c>
+      <c r="D14" s="5">
+        <f>F14*H14-C14</f>
+        <v>285</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1700</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="5">
+        <f>D14/H14</f>
+        <v>285</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="5">
+        <f>F15*H15-C15</f>
+        <v>1896.5</v>
+      </c>
+      <c r="E15" s="5">
+        <f>F15*I15</f>
+        <v>1982.75</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1982.75</v>
+      </c>
+      <c r="G15" s="5">
+        <f>D15/H15</f>
+        <v>316.08333333333331</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:D30" si="1">F16*H16-C16</f>
+        <v>1916.2399999999998</v>
+      </c>
+      <c r="E16" s="5">
+        <f>F16*I16</f>
+        <v>993.02</v>
+      </c>
+      <c r="F16" s="5">
+        <v>993.02</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16:G30" si="2">D16/H16</f>
+        <v>159.68666666666664</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5">
+        <v>15000</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>5813.760000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <f>F17*I17</f>
+        <v>11274.12</v>
+      </c>
+      <c r="F17" s="5">
+        <v>867.24</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>242.24000000000009</v>
+      </c>
+      <c r="H17" s="3">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2042</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>380.40000000000009</v>
+      </c>
+      <c r="E18" s="5">
+        <f>F18*I18</f>
+        <v>2422.4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2422.4</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>380.40000000000009</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="E19" s="5">
+        <f>F19*I19</f>
+        <v>8287.5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1657.5</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>157.5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2045</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="E20" s="5">
+        <f>F20*I20</f>
+        <v>2500</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E21" s="5">
+        <f>F21*I21</f>
+        <v>3097</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3097</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4300</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>430.64000000000033</v>
+      </c>
+      <c r="E22" s="5">
+        <f>F22*I22</f>
+        <v>3942.2000000000003</v>
+      </c>
+      <c r="F22" s="5">
+        <v>394.22</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="2"/>
+        <v>35.886666666666692</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
+        <v>16</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5">
+        <v>17280</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>11221.560000000001</v>
+      </c>
+      <c r="E23" s="5">
+        <f>F23*I23</f>
+        <v>4750.26</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1583.42</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>623.42000000000007</v>
+      </c>
+      <c r="H23" s="3">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5">
+        <v>900</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>53.730000000000018</v>
+      </c>
+      <c r="E24" s="5">
+        <f>F24*I24</f>
+        <v>317.91000000000003</v>
+      </c>
+      <c r="F24" s="5">
+        <v>317.91000000000003</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>17.910000000000007</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <v>500</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>29.860000000000014</v>
+      </c>
+      <c r="E25" s="5">
+        <f>F25*I25</f>
+        <v>529.86</v>
+      </c>
+      <c r="F25" s="5">
+        <v>176.62</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9533333333333385</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1400</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>83.589999999999918</v>
+      </c>
+      <c r="E26" s="5">
+        <f>F26*I26</f>
+        <v>494.53</v>
+      </c>
+      <c r="F26" s="5">
+        <v>494.53</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="2"/>
+        <v>27.863333333333305</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>13</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1100</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>65.680000000000064</v>
+      </c>
+      <c r="E27" s="5">
+        <f>F27*I27</f>
+        <v>777.12</v>
+      </c>
+      <c r="F27" s="5">
+        <v>388.56</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="2"/>
+        <v>21.893333333333356</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1800</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>107.46000000000004</v>
+      </c>
+      <c r="E28" s="5">
+        <f>F28*I28</f>
+        <v>1271.6400000000001</v>
+      </c>
+      <c r="F28" s="5">
+        <v>635.82000000000005</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
+        <v>35.820000000000014</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>17</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2600</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>155.23000000000002</v>
+      </c>
+      <c r="E29" s="5">
+        <f>F29*I29</f>
+        <v>2755.23</v>
+      </c>
+      <c r="F29" s="5">
+        <v>918.41</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="2"/>
+        <v>51.743333333333339</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5">
+        <v>800</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>47.769999999999982</v>
+      </c>
+      <c r="E30" s="5">
+        <f>F30*I30</f>
+        <v>282.58999999999997</v>
+      </c>
+      <c r="F30" s="5">
+        <v>282.58999999999997</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
+        <v>15.923333333333327</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>18</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>22</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>23</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7831.67</v>
+      </c>
+      <c r="E48" s="5">
+        <v>37831.67</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1892</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" ref="G48" si="3">D48/H48</f>
+        <v>391.58350000000002</v>
+      </c>
+      <c r="H48" s="3">
+        <v>20</v>
+      </c>
+      <c r="I48" s="3">
+        <v>20</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>25</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="5">
+        <v>17000</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="5">
+        <v>11598.95</v>
+      </c>
+      <c r="F49" s="5">
+        <v>4500</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -376,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -390,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95477B60-6F81-444E-9D46-CC5BF13E2A06}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -399,6 +2172,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/debt.xlsx
+++ b/debt.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="借款统计" sheetId="1" r:id="rId1"/>
-    <sheet name="还款日" sheetId="4" r:id="rId2"/>
+    <sheet name="还款清单" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="start_day">#REF!</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>分类</t>
   </si>
@@ -320,7 +320,7 @@
     <t>总计</t>
   </si>
   <si>
-    <t>还款日累计</t>
+    <t>还款日累计(2018.12)</t>
   </si>
   <si>
     <t>当前日期：2018.12.5</t>
@@ -329,6 +329,9 @@
     <t>日期</t>
   </si>
   <si>
+    <t>当日还款总额</t>
+  </si>
+  <si>
     <t>贷款名称</t>
   </si>
   <si>
@@ -345,6 +348,15 @@
   </si>
   <si>
     <t>2019.12.3</t>
+  </si>
+  <si>
+    <t>2019.12.6</t>
+  </si>
+  <si>
+    <t>2018.12.8</t>
+  </si>
+  <si>
+    <t>5/57</t>
   </si>
 </sst>
 </file>
@@ -382,14 +394,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="4" tint="0.6"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4" tint="0.6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -769,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -778,37 +790,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -975,7 +968,7 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,7 +998,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,28 +1016,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,10 +1046,10 @@
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,83 +1107,101 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,2286 +1555,2286 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
+      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="8" width="9" style="13"/>
+    <col min="4" max="8" width="9" style="19"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>946</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>101.72</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" ref="F2:F13" si="0">G2*J2</f>
         <v>174.62</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>174.62</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f t="shared" ref="H2:H48" si="1">E2/I2</f>
         <v>16.9533333333333</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>6</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="17"/>
-      <c r="B3" s="6">
+      <c r="A3" s="23"/>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>6714</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>826.68</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>2513.56</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>628.39</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" si="1"/>
         <v>68.89</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>12</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>12000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>997.2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>4332.4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>1083.1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>83.1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>12</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>4</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>21</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6">
+      <c r="A5" s="23"/>
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2200</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>97.28</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>1148.64</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>382.88</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="1"/>
         <v>16.2133333333333</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>21</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>3200</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>141.46</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>2784.55</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>556.91</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>23.5766666666667</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>21</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>3100</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>177.84</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>3177.84</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>1059.28</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>59.28</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>21</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6">
+      <c r="A8" s="23"/>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>3000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>660.63</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>1220.21</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1220.21</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>220.21</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>10000</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>2785.04</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>2128.84</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1064.42</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>232.086666666667</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>12</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>21</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>20000</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>2064.04</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>1838.67</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1838.67</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>172.003333333333</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>5</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6">
+      <c r="A11" s="23"/>
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>9000</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3454.92</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>3459.7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>691.94</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>191.94</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>18</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>5</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>18</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="6">
+      <c r="A12" s="23"/>
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>20000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>7199.2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>15866.2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>2266.6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>599.933333333333</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>12</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>7</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>13</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="17"/>
-      <c r="B13" s="6">
+      <c r="A13" s="23"/>
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>7000</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>2512.92</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>3497.05</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>699.41</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>209.41</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>12</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>5</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>21</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1415</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" ref="E14:E47" si="2">G14*I14-D14</f>
         <v>285</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1700</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>1700</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>1</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>13</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="6">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>10000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="2"/>
         <v>1896.5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" ref="F15:F47" si="3">G15*J15</f>
         <v>1982.75</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>1982.75</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>316.083333333333</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>3</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="17"/>
-      <c r="B16" s="6">
+      <c r="A16" s="23"/>
+      <c r="B16" s="5">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>10000</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="2"/>
         <v>1916.24</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>993.02</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>993.02</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>159.686666666667</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>12</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>16</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="17"/>
-      <c r="B17" s="6">
+      <c r="A17" s="23"/>
+      <c r="B17" s="5">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>15000</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="2"/>
         <v>5813.76</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="3"/>
         <v>11274.12</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>867.24</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>242.24</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>24</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>13</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6">
+      <c r="A18" s="23"/>
+      <c r="B18" s="5">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>2042</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="2"/>
         <v>380.4</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="3"/>
         <v>2422.4</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2422.4</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>380.4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>1</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>14</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="17"/>
-      <c r="B19" s="6">
+      <c r="A19" s="23"/>
+      <c r="B19" s="5">
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>9000</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
         <v>945</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>8287.5</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>1657.5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>157.5</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>6</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>5</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>12</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="17"/>
-      <c r="B20" s="6">
+      <c r="A20" s="23"/>
+      <c r="B20" s="5">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>2045</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>2500</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>1</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>6</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6">
+      <c r="A21" s="23"/>
+      <c r="B21" s="5">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>3000</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>3097</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>3097</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="17"/>
-      <c r="B22" s="6">
+      <c r="A22" s="23"/>
+      <c r="B22" s="5">
         <v>23</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>4300</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="2"/>
         <v>430.64</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="3"/>
         <v>3942.2</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>394.22</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>35.8866666666667</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>12</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>10</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>16</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="17"/>
-      <c r="B23" s="6">
+      <c r="A23" s="23"/>
+      <c r="B23" s="5">
         <v>24</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>17280</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="2"/>
         <v>11221.56</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="3"/>
         <v>4750.26</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>1583.42</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>623.42</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>18</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>3</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>15</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="17"/>
-      <c r="B24" s="6">
+      <c r="A24" s="23"/>
+      <c r="B24" s="5">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>900</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="2"/>
         <v>53.73</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>317.91</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>317.91</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>17.91</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>3</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>1</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>11</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="17"/>
-      <c r="B25" s="6">
+      <c r="A25" s="23"/>
+      <c r="B25" s="5">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>500</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="2"/>
         <v>29.86</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="3"/>
         <v>529.86</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>176.62</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>9.95333333333334</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>3</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>3</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>10</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="17"/>
-      <c r="B26" s="6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="5">
         <v>27</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>1400</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="2"/>
         <v>83.5899999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>494.53</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>494.53</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>27.8633333333333</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>3</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>1</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>13</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6">
+      <c r="A27" s="23"/>
+      <c r="B27" s="5">
         <v>28</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>1100</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="2"/>
         <v>65.6800000000001</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>777.12</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>388.56</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>21.8933333333334</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>3</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>2</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>16</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="17"/>
-      <c r="B28" s="6">
+      <c r="A28" s="23"/>
+      <c r="B28" s="5">
         <v>29</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>1800</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="2"/>
         <v>107.46</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>1271.64</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>635.82</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>35.82</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>3</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>2</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>17</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="17"/>
-      <c r="B29" s="6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="5">
         <v>30</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>2600</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="2"/>
         <v>155.23</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>2755.23</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>918.41</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" si="1"/>
         <v>51.7433333333333</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>3</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>14</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="17"/>
-      <c r="B30" s="6">
+      <c r="A30" s="23"/>
+      <c r="B30" s="5">
         <v>31</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>800</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="2"/>
         <v>47.77</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="3"/>
         <v>282.59</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>282.59</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="1"/>
         <v>15.9233333333333</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>3</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>18</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="17"/>
-      <c r="B31" s="6">
+      <c r="A31" s="23"/>
+      <c r="B31" s="5">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>1500</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="2"/>
         <v>503.84</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="3"/>
         <v>2003.84</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>2003.84</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="1"/>
         <v>503.84</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>1</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>9</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="6">
+      <c r="A32" s="23"/>
+      <c r="B32" s="5">
         <v>33</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>2150</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="3"/>
         <v>2280</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>760</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>4</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>3</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="6">
+      <c r="A33" s="23"/>
+      <c r="B33" s="5">
         <v>34</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>1300</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="2"/>
         <v>401.36</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="3"/>
         <v>1512.32</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>94.52</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f t="shared" si="1"/>
         <v>22.2977777777778</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>18</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>16</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>15</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="6">
+      <c r="A34" s="23"/>
+      <c r="B34" s="5">
         <v>35</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>400</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="2"/>
         <v>43.04</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="3"/>
         <v>295.36</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>73.84</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>7.17333333333334</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>6</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>4</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>6</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="6">
+      <c r="A35" s="23"/>
+      <c r="B35" s="5">
         <v>36</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>1300</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="2"/>
         <v>92.48</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="3"/>
         <v>696.24</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>232.08</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>15.4133333333333</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>6</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>3</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>6</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="6">
+      <c r="A36" s="23"/>
+      <c r="B36" s="5">
         <v>37</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>5100</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="2"/>
         <v>1048.32</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>2049.44</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>512.36</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>87.36</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>12</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>4</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>14</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="6">
+      <c r="A37" s="23"/>
+      <c r="B37" s="5">
         <v>38</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>2700</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="2"/>
         <v>555</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="3"/>
         <v>2712.5</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>271.25</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="1"/>
         <v>46.25</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>12</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>10</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>16</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="17"/>
-      <c r="B38" s="6">
+      <c r="A38" s="23"/>
+      <c r="B38" s="5">
         <v>39</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>1100</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="2"/>
         <v>39.1600000000001</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="3"/>
         <v>189.86</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>189.86</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f t="shared" si="1"/>
         <v>6.52666666666668</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>6</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>1</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>16</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="17"/>
-      <c r="B39" s="6">
+      <c r="A39" s="23"/>
+      <c r="B39" s="5">
         <v>40</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>1400</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="2"/>
         <v>23.6200000000001</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>711.81</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>237.27</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f t="shared" si="1"/>
         <v>3.93666666666669</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>6</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>3</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>31</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="17"/>
-      <c r="B40" s="6">
+      <c r="A40" s="23"/>
+      <c r="B40" s="5">
         <v>41</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>1200</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="2"/>
         <v>8.66000000000008</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>1208.66</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>604.33</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <f t="shared" si="1"/>
         <v>4.33000000000004</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>2</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>2</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>22</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="17"/>
-      <c r="B41" s="6">
+      <c r="A41" s="23"/>
+      <c r="B41" s="5">
         <v>42</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>1400</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="2"/>
         <v>13.4499999999998</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="3"/>
         <v>942.3</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>471.15</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f t="shared" si="1"/>
         <v>4.48333333333327</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>3</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>2</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>20</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="17"/>
-      <c r="B42" s="6">
+      <c r="A42" s="23"/>
+      <c r="B42" s="5">
         <v>43</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>600</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="2"/>
         <v>4.32000000000005</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="3"/>
         <v>604.32</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>302.16</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <f t="shared" si="1"/>
         <v>2.16000000000002</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>2</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>2</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>19</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="17"/>
-      <c r="B43" s="6">
+      <c r="A43" s="23"/>
+      <c r="B43" s="5">
         <v>44</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>1500</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="2"/>
         <v>31.6800000000001</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="3"/>
         <v>510.56</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>255.28</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <f t="shared" si="1"/>
         <v>5.28000000000001</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>6</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>2</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>18</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="17"/>
-      <c r="B44" s="6">
+      <c r="A44" s="23"/>
+      <c r="B44" s="5">
         <v>45</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>5000</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f t="shared" si="2"/>
         <v>142.48</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>1714.16</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>428.54</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <f t="shared" si="1"/>
         <v>11.8733333333334</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>12</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>4</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>17</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="17"/>
-      <c r="B45" s="6">
+      <c r="A45" s="23"/>
+      <c r="B45" s="5">
         <v>46</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>1050</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <f t="shared" si="2"/>
         <v>10.0799999999999</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" si="3"/>
         <v>353.36</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>353.36</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <f t="shared" si="1"/>
         <v>3.35999999999998</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>3</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>1</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>17</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="17"/>
-      <c r="B46" s="6">
+      <c r="A46" s="23"/>
+      <c r="B46" s="5">
         <v>47</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>1000</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" si="2"/>
         <v>14.4499999999999</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="3"/>
         <v>405.78</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>202.89</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <f t="shared" si="1"/>
         <v>2.88999999999999</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>5</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>2</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>16</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="17"/>
-      <c r="B47" s="6">
+      <c r="A47" s="23"/>
+      <c r="B47" s="5">
         <v>48</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>5000</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="2"/>
         <v>142.48</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="3"/>
         <v>2142.7</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>428.54</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <f t="shared" si="1"/>
         <v>11.8733333333334</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>12</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>5</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>14</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="17"/>
-      <c r="B48" s="6">
+      <c r="A48" s="23"/>
+      <c r="B48" s="5">
         <v>49</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>30000</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>7831.67</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>37831.67</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>1892</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <f t="shared" si="1"/>
         <v>391.5835</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>20</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>20</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>12</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="17"/>
-      <c r="B49" s="6">
+      <c r="A49" s="23"/>
+      <c r="B49" s="5">
         <v>50</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>17000</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>11598.95</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>4500</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>15</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="18"/>
-      <c r="B50" s="6">
+      <c r="A50" s="24"/>
+      <c r="B50" s="5">
         <v>51</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>13000</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>13000</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>4500</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>6</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="18"/>
-      <c r="B51" s="6">
+      <c r="A51" s="24"/>
+      <c r="B51" s="5">
         <v>52</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>11798</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>11800</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>2000</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>10</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="18"/>
-      <c r="B52" s="6">
+      <c r="A52" s="24"/>
+      <c r="B52" s="5">
         <v>53</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>4150</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>0</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>4150</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>4150</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>0</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>1</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>1</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>21</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="26">
         <v>51</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="27">
         <f>SUM(D2:D49)</f>
         <v>261042</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="27">
         <f>SUM(E2:E49)</f>
         <v>56799.44</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="27">
         <f>SUM(F2:F49)</f>
         <v>159284.24</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="27">
         <f>SUM(G2:G49)</f>
         <v>45891.69</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="27">
         <f>SUM(H2:H49)</f>
         <v>6180.05127777777</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>51</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>30000</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>30000</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>3</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="23"/>
-      <c r="B55" s="6">
+      <c r="A55" s="29"/>
+      <c r="B55" s="5">
         <v>52</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>48750.16</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>48750.16</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>7</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="23"/>
-      <c r="B56" s="6">
+      <c r="A56" s="29"/>
+      <c r="B56" s="5">
         <v>53</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>20427.65</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>20427.65</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>7</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="23"/>
-      <c r="B57" s="6">
+      <c r="A57" s="29"/>
+      <c r="B57" s="5">
         <v>54</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>25000</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>24000</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>86</v>
+      <c r="K57" s="5">
+        <v>5</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="23"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="26">
         <v>4</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="27">
         <f>SUM(D54:D57)</f>
         <v>124177.81</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="27">
         <f>SUM(F54:F57)</f>
         <v>123177.81</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="27">
         <f>SUM(G7:G57)</f>
         <v>99607.48</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="27">
         <f>SUM(H7:H57)</f>
         <v>12151.3692222222</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="6">
+      <c r="B59" s="26"/>
+      <c r="C59" s="5">
         <v>55</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <f>D53+D58</f>
         <v>385219.81</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <f>F58+F53</f>
         <v>282462.05</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <f>G53+25800</f>
         <v>71691.69</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3841,340 +3852,1026 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="19" width="9" style="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="20" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6">
+      <c r="F3" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5">
+        <f>D4</f>
+        <v>628.39</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D4" s="6">
         <v>628.39</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9">
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="8">
+        <f>D5+D6</f>
+        <v>12982.75</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D5" s="6">
         <v>1982.75</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D6" s="5">
         <v>11000</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="E6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="9">
+        <f>D8+D7</f>
+        <v>2838.67</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D8" s="6">
         <v>1838.67</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="8">
+        <f>D9+D10+D11+D12</f>
+        <v>6805.92</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D9" s="6">
         <v>2500</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6" t="s">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D10" s="6">
         <v>73.84</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D11" s="6">
         <v>232.08</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B13" s="8">
+        <f>D13+D14+D15</f>
+        <v>11974.62</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D13" s="6">
         <v>174.62</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D14" s="6">
         <v>6800</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D15" s="6">
         <v>5000</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10">
+        <f>D16</f>
+        <v>760</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13">
+        <v>760</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <f>D17</f>
+        <v>2003.84</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2003.84</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <f>D18+D19</f>
+        <v>2176.62</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="13">
+        <v>176.62</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <f>D20</f>
+        <v>317.91</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="13">
+        <v>317.91</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8">
+        <f>D21+D22</f>
+        <v>3549.5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1657.5</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1892</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>13</v>
+      </c>
+      <c r="B23" s="14">
+        <f>D23+D25+D24</f>
+        <v>4461.13</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2266.6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="13">
+        <v>494.53</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9">
+        <v>14</v>
+      </c>
+      <c r="B26" s="14">
+        <f>D26+D27+D29+D28</f>
+        <v>4281.71</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2422.4</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="13">
+        <v>918.41</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13">
+        <v>512.36</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="13">
+        <v>428.54</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>15</v>
+      </c>
+      <c r="B30" s="14">
+        <f>D30+D31+D32+D33</f>
+        <v>6937.94</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1583.42</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13">
+        <v>94.52</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="13">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="13">
+        <v>760</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9">
+        <v>16</v>
+      </c>
+      <c r="B34" s="14">
+        <f>D34+D35+D36+D37+D39+D40+D38</f>
+        <v>3307.04</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="13">
+        <v>993.02</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13">
+        <v>867.24</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="13">
+        <v>394.22</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="13">
+        <v>388.56</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="13">
+        <v>271.25</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="13">
+        <v>189.86</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="13">
+        <v>202.89</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9">
+        <v>17</v>
+      </c>
+      <c r="B41" s="14">
+        <f>D41+D42+D43+D44+D45</f>
+        <v>5734.93</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1220.21</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="13">
+        <v>3097</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="13">
+        <v>635.82</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="13">
+        <v>428.54</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="13">
+        <v>353.36</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9">
+        <v>18</v>
+      </c>
+      <c r="B46" s="14">
+        <f>D46+D47+D48</f>
+        <v>1229.81</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="13">
+        <v>691.94</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="13">
+        <v>282.59</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="13">
+        <v>255.28</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>19</v>
+      </c>
+      <c r="B49" s="8">
+        <f>D49</f>
+        <v>302.16</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="13">
+        <v>302.16</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>20</v>
+      </c>
+      <c r="B50" s="8">
+        <f>D50</f>
+        <v>471.15</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="13">
+        <v>471.15</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9">
+        <v>21</v>
+      </c>
+      <c r="B51" s="9">
+        <f>D51+D52+D53+D54+D55+D56+D57</f>
+        <v>8996</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1083.1</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="13">
+        <v>382.88</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="13">
+        <v>556.91</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1059.28</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1064.42</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="13">
+        <v>699.41</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="13">
+        <v>4150</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9">
+        <v>22</v>
+      </c>
+      <c r="B58" s="9">
+        <f>D58+D59</f>
+        <v>1364.33</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="13">
+        <v>760</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="13">
+        <v>604.33</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8">
+        <v>31</v>
+      </c>
+      <c r="B60" s="8">
+        <f>D60</f>
+        <v>237.27</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="13">
+        <v>237.27</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="18">
+        <v>21</v>
+      </c>
+      <c r="B61" s="18">
+        <f>SUM(B4:B60)</f>
+        <v>81361.69</v>
+      </c>
+      <c r="C61" s="18">
+        <v>57</v>
+      </c>
+      <c r="D61" s="18">
+        <f>SUM(D4:D60)</f>
+        <v>81361.69</v>
+      </c>
+      <c r="E61" s="18">
+        <v>12</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="30">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:H2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/debt.xlsx
+++ b/debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="借款统计" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>分类</t>
   </si>
@@ -344,10 +344,16 @@
     <t>当月是否已还</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>2018.12.2</t>
   </si>
   <si>
     <t>2019.12.3</t>
+  </si>
+  <si>
+    <t>已结清</t>
   </si>
   <si>
     <t>2019.12.6</t>
@@ -364,10 +370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
@@ -414,17 +420,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,15 +456,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,7 +472,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,9 +509,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,65 +555,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -596,7 +602,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,139 +716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,30 +746,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -790,18 +796,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -814,9 +817,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -843,20 +844,31 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,17 +898,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,33 +945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -965,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,231 +965,222 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,67 +1534,67 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="8" width="9" style="19"/>
+    <col min="4" max="8" width="9" style="20"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="6">
@@ -1635,25 +1614,25 @@
         <f t="shared" ref="H2:H48" si="1">E2/I2</f>
         <v>16.9533333333333</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="23"/>
-      <c r="B3" s="5">
+      <c r="A3" s="24"/>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6">
@@ -1673,25 +1652,25 @@
         <f t="shared" si="1"/>
         <v>68.89</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>12</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>4</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="23"/>
-      <c r="B4" s="5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="6">
@@ -1711,25 +1690,25 @@
         <f t="shared" si="1"/>
         <v>83.1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>12</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>21</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="23"/>
-      <c r="B5" s="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6">
@@ -1749,25 +1728,25 @@
         <f t="shared" si="1"/>
         <v>16.2133333333333</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>6</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>21</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="23"/>
-      <c r="B6" s="5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="6">
@@ -1787,25 +1766,25 @@
         <f t="shared" si="1"/>
         <v>23.5766666666667</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>21</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="23"/>
-      <c r="B7" s="5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="6">
@@ -1825,25 +1804,25 @@
         <f t="shared" si="1"/>
         <v>59.28</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>21</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="6">
@@ -1863,25 +1842,25 @@
         <f t="shared" si="1"/>
         <v>220.21</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>17</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="23"/>
-      <c r="B9" s="5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="6">
@@ -1901,25 +1880,25 @@
         <f t="shared" si="1"/>
         <v>232.086666666667</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>12</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>21</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="6">
@@ -1930,7 +1909,7 @@
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>1838.67</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <v>1838.67</v>
@@ -1939,25 +1918,25 @@
         <f t="shared" si="1"/>
         <v>172.003333333333</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>12</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="23"/>
-      <c r="B11" s="5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6">
@@ -1977,25 +1956,25 @@
         <f t="shared" si="1"/>
         <v>191.94</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>18</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>5</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>18</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6">
@@ -2015,25 +1994,25 @@
         <f t="shared" si="1"/>
         <v>599.933333333333</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>12</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>7</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>13</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="6">
@@ -2053,25 +2032,25 @@
         <f t="shared" si="1"/>
         <v>209.41</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>12</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>21</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="23"/>
-      <c r="B14" s="5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="4">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="6">
@@ -2091,25 +2070,25 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>13</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="23"/>
-      <c r="B15" s="5">
+      <c r="A15" s="24"/>
+      <c r="B15" s="4">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6">
@@ -2130,25 +2109,25 @@
         <f t="shared" si="1"/>
         <v>316.083333333333</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>6</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="23"/>
-      <c r="B16" s="5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="4">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="6">
@@ -2169,25 +2148,25 @@
         <f t="shared" si="1"/>
         <v>159.686666666667</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>16</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="23"/>
-      <c r="B17" s="5">
+      <c r="A17" s="24"/>
+      <c r="B17" s="4">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="6">
@@ -2208,25 +2187,25 @@
         <f t="shared" si="1"/>
         <v>242.24</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>24</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>13</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>16</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="23"/>
-      <c r="B18" s="5">
+      <c r="A18" s="24"/>
+      <c r="B18" s="4">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="6">
@@ -2247,25 +2226,25 @@
         <f t="shared" si="1"/>
         <v>380.4</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>1</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>14</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="23"/>
-      <c r="B19" s="5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="4">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="6">
@@ -2286,25 +2265,25 @@
         <f t="shared" si="1"/>
         <v>157.5</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>6</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>12</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="23"/>
-      <c r="B20" s="5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="4">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="6">
@@ -2325,25 +2304,25 @@
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>6</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="23"/>
-      <c r="B21" s="5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="4">
         <v>22</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="6">
@@ -2364,25 +2343,25 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>17</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="23"/>
-      <c r="B22" s="5">
+      <c r="A22" s="24"/>
+      <c r="B22" s="4">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="6">
@@ -2403,25 +2382,25 @@
         <f t="shared" si="1"/>
         <v>35.8866666666667</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>12</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>10</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>16</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="23"/>
-      <c r="B23" s="5">
+      <c r="A23" s="24"/>
+      <c r="B23" s="4">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="6">
@@ -2442,25 +2421,25 @@
         <f t="shared" si="1"/>
         <v>623.42</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>18</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>3</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>15</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="23"/>
-      <c r="B24" s="5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="4">
         <v>25</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="6">
@@ -2481,25 +2460,25 @@
         <f t="shared" si="1"/>
         <v>17.91</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>11</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="23"/>
-      <c r="B25" s="5">
+      <c r="A25" s="24"/>
+      <c r="B25" s="4">
         <v>26</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="6">
@@ -2520,25 +2499,25 @@
         <f t="shared" si="1"/>
         <v>9.95333333333334</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>3</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>3</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>10</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="23"/>
-      <c r="B26" s="5">
+      <c r="A26" s="24"/>
+      <c r="B26" s="4">
         <v>27</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="6">
@@ -2559,25 +2538,25 @@
         <f t="shared" si="1"/>
         <v>27.8633333333333</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>3</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>13</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="23"/>
-      <c r="B27" s="5">
+      <c r="A27" s="24"/>
+      <c r="B27" s="4">
         <v>28</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6">
@@ -2598,25 +2577,25 @@
         <f t="shared" si="1"/>
         <v>21.8933333333334</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>16</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="23"/>
-      <c r="B28" s="5">
+      <c r="A28" s="24"/>
+      <c r="B28" s="4">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="6">
@@ -2637,25 +2616,25 @@
         <f t="shared" si="1"/>
         <v>35.82</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>3</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>2</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>17</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="23"/>
-      <c r="B29" s="5">
+      <c r="A29" s="24"/>
+      <c r="B29" s="4">
         <v>30</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="6">
@@ -2676,25 +2655,25 @@
         <f t="shared" si="1"/>
         <v>51.7433333333333</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>3</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>14</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="23"/>
-      <c r="B30" s="5">
+      <c r="A30" s="24"/>
+      <c r="B30" s="4">
         <v>31</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="6">
@@ -2715,25 +2694,25 @@
         <f t="shared" si="1"/>
         <v>15.9233333333333</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>3</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>18</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="23"/>
-      <c r="B31" s="5">
+      <c r="A31" s="24"/>
+      <c r="B31" s="4">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="6">
@@ -2754,25 +2733,25 @@
         <f t="shared" si="1"/>
         <v>503.84</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>1</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>9</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="23"/>
-      <c r="B32" s="5">
+      <c r="A32" s="24"/>
+      <c r="B32" s="4">
         <v>33</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="6">
@@ -2793,25 +2772,25 @@
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>3</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="23"/>
-      <c r="B33" s="5">
+      <c r="A33" s="24"/>
+      <c r="B33" s="4">
         <v>34</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="6">
@@ -2832,25 +2811,25 @@
         <f t="shared" si="1"/>
         <v>22.2977777777778</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>18</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>16</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>15</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="23"/>
-      <c r="B34" s="5">
+      <c r="A34" s="24"/>
+      <c r="B34" s="4">
         <v>35</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="6">
@@ -2871,25 +2850,25 @@
         <f t="shared" si="1"/>
         <v>7.17333333333334</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>6</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>4</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>6</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="23"/>
-      <c r="B35" s="5">
+      <c r="A35" s="24"/>
+      <c r="B35" s="4">
         <v>36</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="6">
@@ -2910,25 +2889,25 @@
         <f t="shared" si="1"/>
         <v>15.4133333333333</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>6</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>3</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>6</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="23"/>
-      <c r="B36" s="5">
+      <c r="A36" s="24"/>
+      <c r="B36" s="4">
         <v>37</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="6">
@@ -2949,25 +2928,25 @@
         <f t="shared" si="1"/>
         <v>87.36</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>12</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>4</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>14</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="23"/>
-      <c r="B37" s="5">
+      <c r="A37" s="24"/>
+      <c r="B37" s="4">
         <v>38</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="6">
@@ -2988,25 +2967,25 @@
         <f t="shared" si="1"/>
         <v>46.25</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>12</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>10</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>16</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="23"/>
-      <c r="B38" s="5">
+      <c r="A38" s="24"/>
+      <c r="B38" s="4">
         <v>39</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="6">
@@ -3027,25 +3006,25 @@
         <f t="shared" si="1"/>
         <v>6.52666666666668</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <v>6</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>1</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>16</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="23"/>
-      <c r="B39" s="5">
+      <c r="A39" s="24"/>
+      <c r="B39" s="4">
         <v>40</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="6">
@@ -3066,25 +3045,25 @@
         <f t="shared" si="1"/>
         <v>3.93666666666669</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>3</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>31</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="23"/>
-      <c r="B40" s="5">
+      <c r="A40" s="24"/>
+      <c r="B40" s="4">
         <v>41</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="6">
@@ -3105,25 +3084,25 @@
         <f t="shared" si="1"/>
         <v>4.33000000000004</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="4">
         <v>2</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>2</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>22</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="23"/>
-      <c r="B41" s="5">
+      <c r="A41" s="24"/>
+      <c r="B41" s="4">
         <v>42</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D41" s="6">
@@ -3144,25 +3123,25 @@
         <f t="shared" si="1"/>
         <v>4.48333333333327</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <v>3</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>2</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>20</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="23"/>
-      <c r="B42" s="5">
+      <c r="A42" s="24"/>
+      <c r="B42" s="4">
         <v>43</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="6">
@@ -3183,25 +3162,25 @@
         <f t="shared" si="1"/>
         <v>2.16000000000002</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>2</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>2</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>19</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="23"/>
-      <c r="B43" s="5">
+      <c r="A43" s="24"/>
+      <c r="B43" s="4">
         <v>44</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="6">
@@ -3222,25 +3201,25 @@
         <f t="shared" si="1"/>
         <v>5.28000000000001</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>6</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>2</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>18</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="23"/>
-      <c r="B44" s="5">
+      <c r="A44" s="24"/>
+      <c r="B44" s="4">
         <v>45</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="6">
@@ -3261,25 +3240,25 @@
         <f t="shared" si="1"/>
         <v>11.8733333333334</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>12</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>4</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="4">
         <v>17</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="23"/>
-      <c r="B45" s="5">
+      <c r="A45" s="24"/>
+      <c r="B45" s="4">
         <v>46</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="6">
@@ -3300,25 +3279,25 @@
         <f t="shared" si="1"/>
         <v>3.35999999999998</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>3</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>1</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
         <v>17</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="23"/>
-      <c r="B46" s="5">
+      <c r="A46" s="24"/>
+      <c r="B46" s="4">
         <v>47</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="6">
@@ -3339,25 +3318,25 @@
         <f t="shared" si="1"/>
         <v>2.88999999999999</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <v>5</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>2</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>16</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="23"/>
-      <c r="B47" s="5">
+      <c r="A47" s="24"/>
+      <c r="B47" s="4">
         <v>48</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D47" s="6">
@@ -3378,25 +3357,25 @@
         <f t="shared" si="1"/>
         <v>11.8733333333334</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <v>12</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>5</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="4">
         <v>14</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="23"/>
-      <c r="B48" s="5">
+      <c r="A48" s="24"/>
+      <c r="B48" s="4">
         <v>49</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D48" s="6">
@@ -3415,25 +3394,25 @@
         <f t="shared" si="1"/>
         <v>391.5835</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>20</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>20</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="4">
         <v>12</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="23"/>
-      <c r="B49" s="5">
+      <c r="A49" s="24"/>
+      <c r="B49" s="4">
         <v>50</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D49" s="6">
@@ -3451,25 +3430,25 @@
       <c r="H49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>15</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="24"/>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>51</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="6">
@@ -3487,25 +3466,25 @@
       <c r="H50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="4">
         <v>6</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="24"/>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>52</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="6">
@@ -3523,25 +3502,25 @@
       <c r="H51" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="4">
         <v>10</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="24"/>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>53</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="6">
@@ -3559,68 +3538,68 @@
       <c r="H52" s="6">
         <v>0</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="4">
         <v>1</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>1</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="4">
         <v>21</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="25"/>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="19">
         <v>51</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="26">
         <f>SUM(D2:D49)</f>
         <v>261042</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="26">
         <f>SUM(E2:E49)</f>
         <v>56799.44</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="26">
         <f>SUM(F2:F49)</f>
-        <v>159284.24</v>
-      </c>
-      <c r="G53" s="27">
+        <v>157445.57</v>
+      </c>
+      <c r="G53" s="26">
         <f>SUM(G2:G49)</f>
         <v>45891.69</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="26">
         <f>SUM(H2:H49)</f>
         <v>6180.05127777777</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>51</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="6">
@@ -3638,25 +3617,25 @@
       <c r="H54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="4">
         <v>3</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="29"/>
-      <c r="B55" s="5">
+      <c r="A55" s="24"/>
+      <c r="B55" s="4">
         <v>52</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D55" s="6">
@@ -3674,25 +3653,25 @@
       <c r="H55" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="4">
         <v>7</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="L55" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="29"/>
-      <c r="B56" s="5">
+      <c r="A56" s="24"/>
+      <c r="B56" s="4">
         <v>53</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D56" s="6">
@@ -3710,25 +3689,25 @@
       <c r="H56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>7</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="29"/>
-      <c r="B57" s="5">
+      <c r="A57" s="24"/>
+      <c r="B57" s="4">
         <v>54</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D57" s="6">
@@ -3746,65 +3725,65 @@
       <c r="H57" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>5</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="29"/>
-      <c r="B58" s="26" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="19">
         <v>4</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="26">
         <f>SUM(D54:D57)</f>
         <v>124177.81</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58" s="26">
         <f>SUM(F54:F57)</f>
         <v>123177.81</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58" s="26">
         <f>SUM(G7:G57)</f>
         <v>99607.48</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="26">
         <f>SUM(H7:H57)</f>
         <v>12151.3692222222</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="5">
+      <c r="B59" s="19"/>
+      <c r="C59" s="4">
         <v>55</v>
       </c>
       <c r="D59" s="6">
@@ -3816,7 +3795,7 @@
       </c>
       <c r="F59" s="6">
         <f>F58+F53</f>
-        <v>282462.05</v>
+        <v>280623.38</v>
       </c>
       <c r="G59" s="6">
         <f>G53+25800</f>
@@ -3825,16 +3804,16 @@
       <c r="H59" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3857,7 +3836,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3884,90 +3863,96 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="G3" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>D4</f>
         <v>628.39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>628.39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <f>D5+D6</f>
         <v>12982.75</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6">
         <v>1982.75</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>109</v>
+      <c r="E5" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>11000</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>109</v>
+      <c r="E6" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3978,138 +3963,149 @@
       <c r="C7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1000</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="6">
         <v>1838.67</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <f>D9+D10+D11+D12</f>
         <v>6805.92</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>2500</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="6">
         <v>73.84</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="6">
         <v>232.08</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>4000</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="E12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <f>D13+D14+D15</f>
         <v>11974.62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>174.62</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="6">
         <v>6800</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="6">
         <v>5000</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
       <c r="B16" s="10">
@@ -4119,551 +4115,586 @@
       <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>760</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="E16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>D17</f>
         <v>2003.84</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>2003.84</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8">
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <f>D18+D19</f>
         <v>2176.62</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>176.62</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>2000</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f>D20</f>
         <v>317.91</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>317.91</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="4">
         <f>D21+D22</f>
         <v>3549.5</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>1657.5</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>1892</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>13</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="15">
         <f>D23+D25+D24</f>
         <v>4461.13</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>2266.6</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>1700</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="17"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>494.53</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>14</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <f>D26+D27+D29+D28</f>
         <v>4281.71</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>2422.4</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>918.41</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>512.36</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
-      <c r="B29" s="17"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>428.54</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>15</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="15">
         <f>D30+D31+D32+D33</f>
         <v>6937.94</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>1583.42</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>94.52</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>4500</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="12"/>
-      <c r="B33" s="17"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>760</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="14"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="9">
         <v>16</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="15">
         <f>D34+D35+D36+D37+D39+D40+D38</f>
         <v>3307.04</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>993.02</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>867.24</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>394.22</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>388.56</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>271.25</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>189.86</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12"/>
-      <c r="B40" s="17"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>202.89</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="14"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="9">
         <v>17</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="15">
         <f>D41+D42+D43+D44+D45</f>
         <v>5734.93</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>1220.21</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>3097</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>635.82</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>428.54</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="12"/>
-      <c r="B45" s="17"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>353.36</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="14"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="9">
         <v>18</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="15">
         <f>D46+D47+D48</f>
         <v>1229.81</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>691.94</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>282.59</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="12"/>
-      <c r="B48" s="17"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="11"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>255.28</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8">
+      <c r="F48" s="14"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4">
         <v>19</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="4">
         <f>D49</f>
         <v>302.16</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>302.16</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8">
+      <c r="F49" s="14"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4">
         <v>20</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="4">
         <f>D50</f>
         <v>471.15</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>471.15</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="14"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="9">
         <v>21</v>
       </c>
@@ -4674,99 +4705,106 @@
       <c r="C51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>1083.1</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>382.88</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>556.91</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>1059.28</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>1064.42</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>699.41</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>4150</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" s="14"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="9">
         <v>22</v>
       </c>
@@ -4777,68 +4815,72 @@
       <c r="C58" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <v>760</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <v>604.33</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="8">
+      <c r="F59" s="14"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
         <v>31</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="4">
         <f>D60</f>
         <v>237.27</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <v>237.27</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="18">
+      <c r="F60" s="14"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="19">
         <v>21</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="19">
         <f>SUM(B4:B60)</f>
         <v>81361.69</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="19">
         <v>57</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="19">
         <f>SUM(D4:D60)</f>
         <v>81361.69</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="19">
         <v>12</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="F61" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/debt.xlsx
+++ b/debt.xlsx
@@ -149,139 +149,139 @@
     <t>酷街</t>
   </si>
   <si>
+    <t>百度-满易贷</t>
+  </si>
+  <si>
+    <t>百度-尊享贷</t>
+  </si>
+  <si>
+    <t>百度-教育贷</t>
+  </si>
+  <si>
+    <t>2018.12.15</t>
+  </si>
+  <si>
+    <t>闪银(1)</t>
+  </si>
+  <si>
+    <t>2018.12.11</t>
+  </si>
+  <si>
+    <t>闪银(2)</t>
+  </si>
+  <si>
+    <t>2018.12.10</t>
+  </si>
+  <si>
+    <t>闪银(3)</t>
+  </si>
+  <si>
+    <t>闪银(4)</t>
+  </si>
+  <si>
+    <t>闪银(5)</t>
+  </si>
+  <si>
+    <t>闪银(6)</t>
+  </si>
+  <si>
+    <t>闪银(7)</t>
+  </si>
+  <si>
+    <t>企鹅钱包</t>
+  </si>
+  <si>
+    <t>2018.12.9</t>
+  </si>
+  <si>
+    <t>水象分期</t>
+  </si>
+  <si>
+    <t>8/15/22</t>
+  </si>
+  <si>
+    <t>2018.12.8/15/22</t>
+  </si>
+  <si>
+    <t>来分期(1)</t>
+  </si>
+  <si>
+    <t>来分期(2)</t>
+  </si>
+  <si>
+    <t>2019.1.6</t>
+  </si>
+  <si>
+    <t>来分期(3)</t>
+  </si>
+  <si>
+    <t>来分期(4)</t>
+  </si>
+  <si>
+    <t>2019.1.14</t>
+  </si>
+  <si>
+    <t>来分期(5)</t>
+  </si>
+  <si>
+    <t>2019.1.16</t>
+  </si>
+  <si>
+    <t>来分期(6)</t>
+  </si>
+  <si>
+    <t>融e贷(1)</t>
+  </si>
+  <si>
+    <t>2018.12.31</t>
+  </si>
+  <si>
+    <t>融e贷(2)</t>
+  </si>
+  <si>
+    <t>2018.12.22</t>
+  </si>
+  <si>
+    <t>融e贷(3)</t>
+  </si>
+  <si>
+    <t>2018.12.20</t>
+  </si>
+  <si>
+    <t>融e贷(4)</t>
+  </si>
+  <si>
+    <t>2018.12.19</t>
+  </si>
+  <si>
+    <t>融e贷(5)</t>
+  </si>
+  <si>
+    <t>融e贷(6)</t>
+  </si>
+  <si>
+    <t>融e贷(7)</t>
+  </si>
+  <si>
+    <t>融e贷(8)</t>
+  </si>
+  <si>
+    <t>融e贷(9)</t>
+  </si>
+  <si>
+    <t>平安普惠</t>
+  </si>
+  <si>
+    <t>招联</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>招联(hy)</t>
+  </si>
+  <si>
     <t>2018.12.6</t>
-  </si>
-  <si>
-    <t>百度-满易贷</t>
-  </si>
-  <si>
-    <t>百度-尊享贷</t>
-  </si>
-  <si>
-    <t>百度-教育贷</t>
-  </si>
-  <si>
-    <t>2018.12.15</t>
-  </si>
-  <si>
-    <t>闪银(1)</t>
-  </si>
-  <si>
-    <t>2018.12.11</t>
-  </si>
-  <si>
-    <t>闪银(2)</t>
-  </si>
-  <si>
-    <t>2018.12.10</t>
-  </si>
-  <si>
-    <t>闪银(3)</t>
-  </si>
-  <si>
-    <t>闪银(4)</t>
-  </si>
-  <si>
-    <t>闪银(5)</t>
-  </si>
-  <si>
-    <t>闪银(6)</t>
-  </si>
-  <si>
-    <t>闪银(7)</t>
-  </si>
-  <si>
-    <t>企鹅钱包</t>
-  </si>
-  <si>
-    <t>2018.12.9</t>
-  </si>
-  <si>
-    <t>水象分期</t>
-  </si>
-  <si>
-    <t>8/15/22</t>
-  </si>
-  <si>
-    <t>2018.12.8/15/22</t>
-  </si>
-  <si>
-    <t>来分期(1)</t>
-  </si>
-  <si>
-    <t>来分期(2)</t>
-  </si>
-  <si>
-    <t>2019.1.6</t>
-  </si>
-  <si>
-    <t>来分期(3)</t>
-  </si>
-  <si>
-    <t>来分期(4)</t>
-  </si>
-  <si>
-    <t>2019.1.14</t>
-  </si>
-  <si>
-    <t>来分期(5)</t>
-  </si>
-  <si>
-    <t>2019.1.16</t>
-  </si>
-  <si>
-    <t>来分期(6)</t>
-  </si>
-  <si>
-    <t>融e贷(1)</t>
-  </si>
-  <si>
-    <t>2018.12.31</t>
-  </si>
-  <si>
-    <t>融e贷(2)</t>
-  </si>
-  <si>
-    <t>2018.12.22</t>
-  </si>
-  <si>
-    <t>融e贷(3)</t>
-  </si>
-  <si>
-    <t>2018.12.20</t>
-  </si>
-  <si>
-    <t>融e贷(4)</t>
-  </si>
-  <si>
-    <t>2018.12.19</t>
-  </si>
-  <si>
-    <t>融e贷(5)</t>
-  </si>
-  <si>
-    <t>融e贷(6)</t>
-  </si>
-  <si>
-    <t>融e贷(7)</t>
-  </si>
-  <si>
-    <t>融e贷(8)</t>
-  </si>
-  <si>
-    <t>融e贷(9)</t>
-  </si>
-  <si>
-    <t>平安普惠</t>
-  </si>
-  <si>
-    <t>招联</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>招联(hy)</t>
   </si>
   <si>
     <t>花呗</t>
@@ -372,9 +372,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -427,90 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,6 +448,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -539,9 +471,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,10 +556,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -602,19 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +614,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,37 +722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,37 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,37 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +852,50 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -873,45 +917,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,21 +945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +965,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,9 +1105,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,18 +1117,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,6 +1141,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,6 +1166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,2214 +1536,2214 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="8" width="9" style="20"/>
+    <col min="4" max="8" width="9" style="19"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>946</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>101.72</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:F13" si="0">G2*J2</f>
         <v>174.62</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>174.62</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f t="shared" ref="H2:H48" si="1">E2/I2</f>
         <v>16.9533333333333</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="24"/>
-      <c r="B3" s="4">
+      <c r="A3" s="23"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>6714</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>826.68</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>2513.56</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>628.39</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
         <v>68.89</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>12</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="24"/>
-      <c r="B4" s="4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>12000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>997.2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>4332.4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1083.1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>83.1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>12</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="24"/>
-      <c r="B5" s="4">
+      <c r="A5" s="23"/>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2200</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>97.28</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>1148.64</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>382.88</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>16.2133333333333</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>21</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="24"/>
-      <c r="B6" s="4">
+      <c r="A6" s="23"/>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3200</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>141.46</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>2784.55</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>556.91</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>23.5766666666667</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>6</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>21</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="24"/>
-      <c r="B7" s="4">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3100</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>177.84</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>3177.84</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1059.28</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>59.28</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>21</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="24"/>
-      <c r="B8" s="4">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>660.63</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>1220.21</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1220.21</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>220.21</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>17</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
-      <c r="B9" s="4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>10000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2785.04</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>2128.84</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1064.42</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>232.086666666667</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>12</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>21</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="24">
         <v>20000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="24">
         <v>2064.04</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="24">
         <v>1838.67</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="24">
         <f t="shared" si="1"/>
         <v>172.003333333333</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="10">
         <v>12</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="10">
         <v>5</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4">
+      <c r="A11" s="23"/>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>9000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>3454.92</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>3459.7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>691.94</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>191.94</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>18</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>18</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="4">
+      <c r="A12" s="23"/>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>20000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>7199.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>15866.2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>2266.6</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>599.933333333333</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>12</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>7</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>13</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="24"/>
-      <c r="B13" s="4">
+      <c r="A13" s="23"/>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>7000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2512.92</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>3497.05</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>699.41</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>209.41</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>12</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>21</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="24"/>
-      <c r="B14" s="4">
+      <c r="A14" s="23"/>
+      <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1415</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" ref="E14:E47" si="2">G14*I14-D14</f>
         <v>285</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1700</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1700</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>13</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="24"/>
-      <c r="B15" s="4">
+      <c r="A15" s="23"/>
+      <c r="B15" s="3">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>10000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>1896.5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" ref="F15:F47" si="3">G15*J15</f>
         <v>1982.75</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>1982.75</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>316.083333333333</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>3</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="24"/>
-      <c r="B16" s="4">
+      <c r="A16" s="23"/>
+      <c r="B16" s="3">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>10000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>1916.24</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>993.02</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>993.02</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>159.686666666667</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>12</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>16</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="24"/>
-      <c r="B17" s="4">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>15000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
         <v>5813.76</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>11274.12</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>867.24</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>242.24</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>24</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>13</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>16</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="24"/>
-      <c r="B18" s="4">
+      <c r="A18" s="23"/>
+      <c r="B18" s="3">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>2042</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="2"/>
         <v>380.4</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="3"/>
         <v>2422.4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>2422.4</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="1"/>
         <v>380.4</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>14</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="24"/>
-      <c r="B19" s="4">
+      <c r="A19" s="23"/>
+      <c r="B19" s="3">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>9000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>945</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="3"/>
         <v>8287.5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1657.5</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="1"/>
         <v>157.5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>6</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>12</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="24"/>
-      <c r="B20" s="4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="3">
         <v>21</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6">
-        <v>2045</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="5">
+        <v>2447.2</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>455</v>
-      </c>
-      <c r="F20" s="6">
+        <v>352.8</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2500</v>
-      </c>
-      <c r="H20" s="6">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2800</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
-        <v>455</v>
-      </c>
-      <c r="I20" s="4">
+        <v>352.8</v>
+      </c>
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="4">
-        <v>6</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="3">
+        <v>13</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="23"/>
+      <c r="B21" s="3">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="24"/>
-      <c r="B21" s="4">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>3000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="3"/>
         <v>3097</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>3097</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>17</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="24"/>
-      <c r="B22" s="4">
+      <c r="A22" s="23"/>
+      <c r="B22" s="3">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5">
         <v>4300</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
         <v>430.64</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
         <v>3942.2</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>394.22</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>35.8866666666667</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>12</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>10</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>16</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="24"/>
-      <c r="B23" s="4">
+      <c r="A23" s="23"/>
+      <c r="B23" s="3">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5">
         <v>17280</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
         <v>11221.56</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="3"/>
         <v>4750.26</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>1583.42</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="1"/>
         <v>623.42</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>18</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>3</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>15</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="23"/>
+      <c r="B24" s="3">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="24"/>
-      <c r="B24" s="4">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>900</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="2"/>
         <v>53.73</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>317.91</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>317.91</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>17.91</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>3</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>11</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="23"/>
+      <c r="B25" s="3">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="24"/>
-      <c r="B25" s="4">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>500</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="2"/>
         <v>29.86</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
         <v>529.86</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>176.62</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>9.95333333333334</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>3</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>3</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>10</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="23"/>
+      <c r="B26" s="3">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="24"/>
-      <c r="B26" s="4">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>1400</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>83.5899999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>494.53</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>494.53</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>27.8633333333333</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>1</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>13</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="24"/>
-      <c r="B27" s="4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="3">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5">
         <v>1100</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f t="shared" si="2"/>
         <v>65.6800000000001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="3"/>
         <v>777.12</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>388.56</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f t="shared" si="1"/>
         <v>21.8933333333334</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>3</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>2</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>16</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="24"/>
-      <c r="B28" s="4">
+      <c r="A28" s="23"/>
+      <c r="B28" s="3">
         <v>29</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5">
         <v>1800</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f t="shared" si="2"/>
         <v>107.46</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>1271.64</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>635.82</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>35.82</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>3</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>17</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="24"/>
-      <c r="B29" s="4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="3">
         <v>30</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5">
         <v>2600</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f t="shared" si="2"/>
         <v>155.23</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
         <v>2755.23</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>918.41</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="1"/>
         <v>51.7433333333333</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>3</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>14</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="24"/>
-      <c r="B30" s="4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="3">
         <v>31</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5">
         <v>800</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f t="shared" si="2"/>
         <v>47.77</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f t="shared" si="3"/>
         <v>282.59</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>282.59</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f t="shared" si="1"/>
         <v>15.9233333333333</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>1</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>18</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="24"/>
-      <c r="B31" s="4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10">
         <v>32</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="24">
         <v>1500</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="24">
         <f t="shared" si="2"/>
         <v>503.84</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="24">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
         <v>2003.84</v>
       </c>
-      <c r="G31" s="6">
-        <v>2003.84</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="H31" s="24">
         <f t="shared" si="1"/>
         <v>503.84</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="10">
         <v>1</v>
       </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
         <v>9</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="23"/>
+      <c r="B32" s="3">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="24"/>
-      <c r="B32" s="4">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>2150</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <f t="shared" si="3"/>
         <v>2280</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>760</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>4</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>3</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="23"/>
+      <c r="B33" s="3">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="24"/>
-      <c r="B33" s="4">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>1300</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f t="shared" si="2"/>
         <v>401.36</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f t="shared" si="3"/>
         <v>1512.32</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>94.52</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f t="shared" si="1"/>
         <v>22.2977777777778</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>18</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>16</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>15</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>47</v>
+      <c r="L33" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="24"/>
-      <c r="B34" s="4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="3">
         <v>35</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5">
         <v>400</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <f t="shared" si="2"/>
         <v>43.04</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f t="shared" si="3"/>
         <v>295.36</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>73.84</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f t="shared" si="1"/>
         <v>7.17333333333334</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>6</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>4</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="23"/>
+      <c r="B35" s="3">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="24"/>
-      <c r="B35" s="4">
-        <v>36</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>1300</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f t="shared" si="2"/>
         <v>92.48</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f t="shared" si="3"/>
         <v>696.24</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>232.08</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" si="1"/>
         <v>15.4133333333333</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>6</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>3</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>6</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>64</v>
+      <c r="L35" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="24"/>
-      <c r="B36" s="4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="3">
         <v>37</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="5">
         <v>5100</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" si="2"/>
         <v>1048.32</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <f t="shared" si="3"/>
         <v>2049.44</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>512.36</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f t="shared" si="1"/>
         <v>87.36</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>12</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <v>4</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <v>14</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="23"/>
+      <c r="B37" s="3">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="24"/>
-      <c r="B37" s="4">
-        <v>38</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>2700</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" si="2"/>
         <v>555</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <f t="shared" si="3"/>
         <v>2712.5</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>271.25</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="1"/>
         <v>46.25</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>12</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>10</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>16</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="23"/>
+      <c r="B38" s="3">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="24"/>
-      <c r="B38" s="4">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1100</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f t="shared" si="2"/>
         <v>39.1600000000001</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <f t="shared" si="3"/>
         <v>189.86</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>189.86</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f t="shared" si="1"/>
         <v>6.52666666666668</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>6</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <v>1</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <v>16</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="24"/>
-      <c r="B39" s="4">
+      <c r="A39" s="23"/>
+      <c r="B39" s="3">
         <v>40</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="5">
         <v>1400</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <f t="shared" si="2"/>
         <v>23.6200000000001</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <f t="shared" si="3"/>
         <v>711.81</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>237.27</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <f t="shared" si="1"/>
         <v>3.93666666666669</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>6</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>3</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <v>31</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="23"/>
+      <c r="B40" s="3">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="24"/>
-      <c r="B40" s="4">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>1200</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <f t="shared" si="2"/>
         <v>8.66000000000008</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <f t="shared" si="3"/>
         <v>1208.66</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>604.33</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <f t="shared" si="1"/>
         <v>4.33000000000004</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>2</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <v>22</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="23"/>
+      <c r="B41" s="3">
+        <v>42</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="24"/>
-      <c r="B41" s="4">
-        <v>42</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>1400</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <f t="shared" si="2"/>
         <v>13.4499999999998</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <f t="shared" si="3"/>
         <v>942.3</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>471.15</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <f t="shared" si="1"/>
         <v>4.48333333333327</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>3</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>2</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <v>20</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="23"/>
+      <c r="B42" s="3">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="24"/>
-      <c r="B42" s="4">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>600</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <f t="shared" si="2"/>
         <v>4.32000000000005</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <f t="shared" si="3"/>
         <v>604.32</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>302.16</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <f t="shared" si="1"/>
         <v>2.16000000000002</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>2</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>2</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>19</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="23"/>
+      <c r="B43" s="3">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="24"/>
-      <c r="B43" s="4">
-        <v>44</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>1500</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <f t="shared" si="2"/>
         <v>31.6800000000001</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <f t="shared" si="3"/>
         <v>510.56</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>255.28</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <f t="shared" si="1"/>
         <v>5.28000000000001</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>6</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>2</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <v>18</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="24"/>
-      <c r="B44" s="4">
+      <c r="A44" s="23"/>
+      <c r="B44" s="3">
         <v>45</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="5">
         <v>5000</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <f t="shared" si="2"/>
         <v>142.48</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <f t="shared" si="3"/>
         <v>1714.16</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>428.54</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <f t="shared" si="1"/>
         <v>11.8733333333334</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>12</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>4</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>17</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="24"/>
-      <c r="B45" s="4">
+      <c r="A45" s="23"/>
+      <c r="B45" s="3">
         <v>46</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="5">
         <v>1050</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <f t="shared" si="2"/>
         <v>10.0799999999999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <f t="shared" si="3"/>
         <v>353.36</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>353.36</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <f t="shared" si="1"/>
         <v>3.35999999999998</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <v>17</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="24"/>
-      <c r="B46" s="4">
+      <c r="A46" s="23"/>
+      <c r="B46" s="3">
         <v>47</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="5">
         <v>1000</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <f t="shared" si="2"/>
         <v>14.4499999999999</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <f t="shared" si="3"/>
         <v>405.78</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>202.89</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <f t="shared" si="1"/>
         <v>2.88999999999999</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>5</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <v>2</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <v>16</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="24"/>
-      <c r="B47" s="4">
+      <c r="A47" s="23"/>
+      <c r="B47" s="3">
         <v>48</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5">
         <v>5000</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <f t="shared" si="2"/>
         <v>142.48</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <f t="shared" si="3"/>
         <v>2142.7</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>428.54</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <f t="shared" si="1"/>
         <v>11.8733333333334</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>12</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>5</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <v>14</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="24"/>
-      <c r="B48" s="4">
+      <c r="A48" s="23"/>
+      <c r="B48" s="3">
         <v>49</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="5">
         <v>30000</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>7831.67</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>37831.67</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>1892</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <f t="shared" si="1"/>
         <v>391.5835</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="3">
         <v>20</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>20</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <v>12</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="24"/>
-      <c r="B49" s="4">
+      <c r="A49" s="23"/>
+      <c r="B49" s="3">
         <v>50</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="5">
+        <v>17000</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="6">
-        <v>17000</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="5">
+        <v>11598.95</v>
+      </c>
+      <c r="G49" s="5">
+        <v>4500</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" s="3">
+        <v>15</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="23"/>
+      <c r="B50" s="3">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="6">
-        <v>11598.95</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="D50" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="5">
+        <v>13000</v>
+      </c>
+      <c r="G50" s="5">
         <v>4500</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K49" s="4">
-        <v>15</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="24"/>
-      <c r="B50" s="4">
-        <v>51</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="H50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" s="3">
+        <v>6</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="6">
-        <v>13000</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="6">
-        <v>13000</v>
-      </c>
-      <c r="G50" s="6">
-        <v>4500</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K50" s="4">
-        <v>6</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="24"/>
-      <c r="B51" s="4">
+      <c r="A51" s="23"/>
+      <c r="B51" s="3">
         <v>52</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>11798</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="E51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="5">
         <v>11800</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>2000</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K51" s="4">
+      <c r="H51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" s="3">
         <v>10</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>51</v>
+      <c r="L51" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="24"/>
-      <c r="B52" s="4">
+      <c r="A52" s="23"/>
+      <c r="B52" s="3">
         <v>53</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>4150</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>0</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>4150</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>4150</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>0</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>1</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>1</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <v>21</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="25"/>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="18">
         <v>51</v>
       </c>
       <c r="D53" s="26">
         <f>SUM(D2:D49)</f>
-        <v>261042</v>
+        <v>261444.2</v>
       </c>
       <c r="E53" s="26">
         <f>SUM(E2:E49)</f>
-        <v>56799.44</v>
+        <v>56697.24</v>
       </c>
       <c r="F53" s="26">
         <f>SUM(F2:F49)</f>
-        <v>157445.57</v>
+        <v>155741.73</v>
       </c>
       <c r="G53" s="26">
         <f>SUM(G2:G49)</f>
-        <v>45891.69</v>
+        <v>46191.69</v>
       </c>
       <c r="H53" s="26">
         <f>SUM(H2:H49)</f>
-        <v>6180.05127777777</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>86</v>
+        <v>6077.85127777778</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>51</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>30000</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="5">
         <v>30000</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K54" s="4">
+      <c r="H54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="3">
         <v>3</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="24"/>
-      <c r="B55" s="4">
+      <c r="A55" s="23"/>
+      <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>48750.16</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="5">
         <v>48750.16</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K55" s="4">
+      <c r="H55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="3">
         <v>7</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="24"/>
-      <c r="B56" s="4">
+      <c r="A56" s="23"/>
+      <c r="B56" s="3">
         <v>53</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>20427.65</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="E56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="5">
         <v>20427.65</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K56" s="4">
+      <c r="H56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="3">
         <v>7</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="24"/>
-      <c r="B57" s="4">
+      <c r="A57" s="23"/>
+      <c r="B57" s="3">
         <v>54</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>25000</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="5">
         <v>24000</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K57" s="4">
+      <c r="G57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="3">
         <v>5</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L57" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="24"/>
-      <c r="B58" s="19" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>4</v>
       </c>
       <c r="D58" s="26">
@@ -3751,7 +3751,7 @@
         <v>124177.81</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" s="26">
         <f>SUM(F54:F57)</f>
@@ -3759,62 +3759,62 @@
       </c>
       <c r="G58" s="26">
         <f>SUM(G7:G57)</f>
-        <v>99607.48</v>
+        <v>100207.48</v>
       </c>
       <c r="H58" s="26">
         <f>SUM(H7:H57)</f>
-        <v>12151.3692222222</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>86</v>
+        <v>11946.9692222222</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="4">
+      <c r="B59" s="18"/>
+      <c r="C59" s="3">
         <v>55</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <f>D53+D58</f>
-        <v>385219.81</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="6">
+        <v>385622.01</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="5">
         <f>F58+F53</f>
-        <v>280623.38</v>
-      </c>
-      <c r="G59" s="6">
+        <v>278919.54</v>
+      </c>
+      <c r="G59" s="5">
         <f>G53+25800</f>
-        <v>71691.69</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>86</v>
+        <v>71991.69</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3831,12 +3831,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3857,1030 +3857,1047 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="S2"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>D4</f>
         <v>628.39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>628.39</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>D5+D6</f>
         <v>12982.75</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1982.75</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>11000</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <f>D8+D7</f>
         <v>2838.67</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1000</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1838.67</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>D9+D10+D11+D12</f>
         <v>6805.92</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2500</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5">
+        <v>73.84</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="6">
-        <v>73.84</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>232.08</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="9">
         <v>4000</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f>D13+D14+D15</f>
         <v>11974.62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>174.62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>6800</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>5000</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <f>D16</f>
         <v>760</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9">
         <v>760</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f>D17</f>
         <v>2003.84</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2003.84</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="12">
-        <v>2003.84</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f>D18+D19</f>
         <v>2176.62</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9">
+        <v>176.62</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="12">
-        <v>176.62</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>2000</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f>D20</f>
         <v>317.91</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="9">
+        <v>317.91</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="12">
-        <v>317.91</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f>D21+D22</f>
         <v>3549.5</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>1657.5</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1892</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
+        <v>13</v>
+      </c>
+      <c r="B23" s="12">
+        <f>D23+D26+D24+D25</f>
+        <v>7261.13</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2266.6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2800</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="9">
+        <v>494.53</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12">
+        <f>D27+D28+D30+D29</f>
+        <v>4281.71</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2422.4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="9">
+        <v>918.41</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="9">
+        <v>512.36</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="9">
+        <v>428.54</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7">
+        <v>15</v>
+      </c>
+      <c r="B31" s="12">
+        <f>D31+D32+D33+D34</f>
+        <v>6937.94</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1583.42</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="9">
+        <v>94.52</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="12">
-        <v>1892</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9">
-        <v>13</v>
-      </c>
-      <c r="B23" s="15">
-        <f>D23+D25+D24</f>
-        <v>4461.13</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2266.6</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1700</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="10" t="s">
+      <c r="D33" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="9">
+        <v>760</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7">
+        <v>16</v>
+      </c>
+      <c r="B35" s="12">
+        <f>D35+D36+D37+D38+D40+D41+D39</f>
+        <v>3307.04</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="9">
+        <v>993.02</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="9">
+        <v>867.24</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="9">
+        <v>394.22</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12">
-        <v>494.53</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="9">
-        <v>14</v>
-      </c>
-      <c r="B26" s="15">
-        <f>D26+D27+D29+D28</f>
-        <v>4281.71</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="12">
-        <v>2422.4</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="10" t="s">
+      <c r="D38" s="9">
+        <v>388.56</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="9">
+        <v>271.25</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="9">
+        <v>189.86</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="9">
+        <v>202.89</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7">
+        <v>17</v>
+      </c>
+      <c r="B42" s="12">
+        <f>D42+D43+D44+D45+D46</f>
+        <v>5734.93</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1220.21</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3097</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="9">
+        <v>635.82</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="9">
+        <v>428.54</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="9">
+        <v>353.36</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7">
+        <v>18</v>
+      </c>
+      <c r="B47" s="12">
+        <f>D47+D48+D49</f>
+        <v>1229.81</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="9">
+        <v>691.94</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12">
-        <v>918.41</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="12">
-        <v>512.36</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="12">
-        <v>428.54</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="9">
-        <v>15</v>
-      </c>
-      <c r="B30" s="15">
-        <f>D30+D31+D32+D33</f>
-        <v>6937.94</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1583.42</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="12">
-        <v>94.52</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="12">
-        <v>4500</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="D48" s="9">
+        <v>282.59</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="9">
+        <v>255.28</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3">
+        <f>D50</f>
+        <v>302.16</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="9">
+        <v>302.16</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3">
+        <f>D51</f>
+        <v>471.15</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="9">
+        <v>471.15</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7">
+        <v>21</v>
+      </c>
+      <c r="B52" s="7">
+        <f>D52+D53+D54+D55+D56+D57+D58</f>
+        <v>8996</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1083.1</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="9">
+        <v>382.88</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="9">
+        <v>556.91</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1059.28</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1064.42</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="9">
+        <v>699.41</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4150</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="7">
+        <v>22</v>
+      </c>
+      <c r="B59" s="7">
+        <f>D59+D60</f>
+        <v>1364.33</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="9">
         <v>760</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="9">
-        <v>16</v>
-      </c>
-      <c r="B34" s="15">
-        <f>D34+D35+D36+D37+D39+D40+D38</f>
-        <v>3307.04</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="12">
-        <v>993.02</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="12">
-        <v>867.24</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="12">
-        <v>394.22</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="12">
-        <v>388.56</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="12">
-        <v>271.25</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="10" t="s">
+      <c r="E59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="9">
+        <v>604.33</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>31</v>
+      </c>
+      <c r="B61" s="3">
+        <f>D61</f>
+        <v>237.27</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="12">
-        <v>189.86</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="12">
-        <v>202.89</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="9">
-        <v>17</v>
-      </c>
-      <c r="B41" s="15">
-        <f>D41+D42+D43+D44+D45</f>
-        <v>5734.93</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1220.21</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="12">
-        <v>3097</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="12">
-        <v>635.82</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="12">
-        <v>428.54</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="12">
-        <v>353.36</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="9">
-        <v>18</v>
-      </c>
-      <c r="B46" s="15">
-        <f>D46+D47+D48</f>
-        <v>1229.81</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="12">
-        <v>691.94</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="12">
-        <v>282.59</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="12">
-        <v>255.28</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4">
-        <v>19</v>
-      </c>
-      <c r="B49" s="4">
-        <f>D49</f>
-        <v>302.16</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="12">
-        <v>302.16</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4">
-        <v>20</v>
-      </c>
-      <c r="B50" s="4">
-        <f>D50</f>
-        <v>471.15</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="12">
-        <v>471.15</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="9">
+      <c r="D61" s="9">
+        <v>237.27</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="18">
         <v>21</v>
       </c>
-      <c r="B51" s="9">
-        <f>D51+D52+D53+D54+D55+D56+D57</f>
-        <v>8996</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="12">
-        <v>1083.1</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="12">
-        <v>382.88</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="12">
-        <v>556.91</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1059.28</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="12">
-        <v>1064.42</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="12">
-        <v>699.41</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="12">
-        <v>4150</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="9">
-        <v>22</v>
-      </c>
-      <c r="B58" s="9">
-        <f>D58+D59</f>
-        <v>1364.33</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="12">
-        <v>760</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="12">
-        <v>604.33</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4">
-        <v>31</v>
-      </c>
-      <c r="B60" s="4">
-        <f>D60</f>
-        <v>237.27</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="12">
-        <v>237.27</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="19">
-        <v>21</v>
-      </c>
-      <c r="B61" s="19">
-        <f>SUM(B4:B60)</f>
-        <v>81361.69</v>
-      </c>
-      <c r="C61" s="19">
+      <c r="B62" s="18">
+        <f>SUM(B4:B61)</f>
+        <v>84161.69</v>
+      </c>
+      <c r="C62" s="18">
         <v>57</v>
       </c>
-      <c r="D61" s="19">
-        <f>SUM(D4:D60)</f>
-        <v>81361.69</v>
-      </c>
-      <c r="E61" s="19">
+      <c r="D62" s="18">
+        <f>SUM(D4:D61)</f>
+        <v>84161.69</v>
+      </c>
+      <c r="E62" s="18">
         <v>12</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F62" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="8"/>
+      <c r="G62" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -4890,28 +4907,28 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="G1:H2"/>
   </mergeCells>

--- a/debt.xlsx
+++ b/debt.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\money\debt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA538C-4F88-44F3-9390-AAC046F8C124}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="借款统计" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,19 @@
   <definedNames>
     <definedName name="start_day">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
   <si>
     <t>分类</t>
   </si>
@@ -363,20 +376,20 @@
   </si>
   <si>
     <t>5/57</t>
+  </si>
+  <si>
+    <t>逾期1天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +420,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="4" tint="0.6"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,151 +432,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,7 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,204 +474,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.25"/>
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -847,262 +545,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,9 +570,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,24 +580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,16 +594,7 @@
     <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,62 +606,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1525,2295 +940,2294 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="8" width="9" style="19"/>
+    <col min="4" max="8" width="9" style="11"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" style="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>946</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>101.72</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F13" si="0">G2*J2</f>
         <v>174.62</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>174.62</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f t="shared" ref="H2:H48" si="1">E2/I2</f>
-        <v>16.9533333333333</v>
-      </c>
-      <c r="I2" s="3">
+        <v>16.953333333333333</v>
+      </c>
+      <c r="I2" s="2">
         <v>6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="23"/>
-      <c r="B3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>6714</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>826.68</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>2513.56</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>628.39</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" si="1"/>
         <v>68.89</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>4</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="23"/>
-      <c r="B4" s="3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>12000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>997.2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>4332.4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1083.1</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="1"/>
-        <v>83.1</v>
-      </c>
-      <c r="I4" s="3">
+        <v>4332.3999999999996</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1083.0999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>83.100000000000009</v>
+      </c>
+      <c r="I4" s="2">
         <v>12</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>21</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="23"/>
-      <c r="B5" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2200</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>97.28</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1148.64</v>
-      </c>
-      <c r="G5" s="5">
+        <v>1148.6399999999999</v>
+      </c>
+      <c r="G5" s="4">
         <v>382.88</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="1"/>
-        <v>16.2133333333333</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>16.213333333333335</v>
+      </c>
+      <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>21</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="23"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3200</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>141.46</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>2784.55</v>
-      </c>
-      <c r="G6" s="5">
+        <v>2784.5499999999997</v>
+      </c>
+      <c r="G6" s="4">
         <v>556.91</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="1"/>
-        <v>23.5766666666667</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>23.576666666666668</v>
+      </c>
+      <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="23"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>3100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>177.84</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>3177.84</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>1059.28</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>59.28</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>21</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="23"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>660.63</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>1220.21</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>1220.21</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>220.21</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>17</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="23"/>
-      <c r="B9" s="3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>10000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2785.04</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>2128.84</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1064.42</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
-        <v>232.086666666667</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>232.08666666666667</v>
+      </c>
+      <c r="I9" s="2">
         <v>12</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>21</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="23"/>
-      <c r="B10" s="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="14">
         <v>20000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="14">
         <v>2064.04</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="14">
         <v>1838.67</v>
       </c>
-      <c r="H10" s="24">
-        <f t="shared" si="1"/>
-        <v>172.003333333333</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
+        <v>172.00333333333333</v>
+      </c>
+      <c r="I10" s="8">
         <v>12</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <v>5</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="23"/>
-      <c r="B11" s="3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>9000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3454.92</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>3459.7</v>
-      </c>
-      <c r="G11" s="5">
+        <v>3459.7000000000003</v>
+      </c>
+      <c r="G11" s="4">
         <v>691.94</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>191.94</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>18</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>20000</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>7199.2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>15866.2</v>
-      </c>
-      <c r="G12" s="5">
+        <v>15866.199999999999</v>
+      </c>
+      <c r="G12" s="4">
         <v>2266.6</v>
       </c>
-      <c r="H12" s="5">
-        <f t="shared" si="1"/>
-        <v>599.933333333333</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>599.93333333333328</v>
+      </c>
+      <c r="I12" s="2">
         <v>12</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>7</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>13</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="23"/>
-      <c r="B13" s="3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>7000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2512.92</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>3497.05</v>
-      </c>
-      <c r="G13" s="5">
+        <v>3497.0499999999997</v>
+      </c>
+      <c r="G13" s="4">
         <v>699.41</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>209.41</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>12</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>21</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="23"/>
-      <c r="B14" s="3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="2">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1415</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" ref="E14:E47" si="2">G14*I14-D14</f>
         <v>285</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1700</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1700</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>13</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="23"/>
-      <c r="B15" s="3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="2">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>10000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f t="shared" si="2"/>
         <v>1896.5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" ref="F15:F47" si="3">G15*J15</f>
         <v>1982.75</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1982.75</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="1"/>
-        <v>316.083333333333</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>316.08333333333331</v>
+      </c>
+      <c r="I15" s="2">
         <v>6</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>3</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="23"/>
-      <c r="B16" s="3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="2">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>10000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="2"/>
-        <v>1916.24</v>
-      </c>
-      <c r="F16" s="5">
+        <v>1916.2399999999998</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="3"/>
         <v>993.02</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>993.02</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="1"/>
-        <v>159.686666666667</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>159.68666666666664</v>
+      </c>
+      <c r="I16" s="2">
         <v>12</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>16</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="23"/>
-      <c r="B17" s="3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="2">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>15000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
-        <v>5813.76</v>
-      </c>
-      <c r="F17" s="5">
+        <v>5813.760000000002</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="3"/>
         <v>11274.12</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>867.24</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="1"/>
-        <v>242.24</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>242.24000000000009</v>
+      </c>
+      <c r="I17" s="2">
         <v>24</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>13</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>16</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="23"/>
-      <c r="B18" s="3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="2">
         <v>19</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2042</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="2"/>
-        <v>380.4</v>
-      </c>
-      <c r="F18" s="5">
+        <v>380.40000000000009</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="3"/>
         <v>2422.4</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>2422.4</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="1"/>
-        <v>380.4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>380.40000000000009</v>
+      </c>
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>14</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="23"/>
-      <c r="B19" s="3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>9000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="2"/>
         <v>945</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f t="shared" si="3"/>
         <v>8287.5</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>1657.5</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <f t="shared" si="1"/>
         <v>157.5</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>12</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="23"/>
-      <c r="B20" s="3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5">
-        <v>2447.2</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>2447.1999999999998</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="2"/>
-        <v>352.8</v>
-      </c>
-      <c r="F20" s="5">
+        <v>352.80000000000018</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="3"/>
         <v>2800</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>2800</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="1"/>
-        <v>352.8</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>352.80000000000018</v>
+      </c>
+      <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>1</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>13</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="23"/>
-      <c r="B21" s="3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2">
         <v>22</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>3000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="3"/>
         <v>3097</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>3097</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>17</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="23"/>
-      <c r="B22" s="3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="2">
         <v>23</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>4300</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="2"/>
-        <v>430.64</v>
-      </c>
-      <c r="F22" s="5">
+        <v>430.64000000000033</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="3"/>
-        <v>3942.2</v>
-      </c>
-      <c r="G22" s="5">
+        <v>3942.2000000000003</v>
+      </c>
+      <c r="G22" s="4">
         <v>394.22</v>
       </c>
-      <c r="H22" s="5">
-        <f t="shared" si="1"/>
-        <v>35.8866666666667</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>35.886666666666692</v>
+      </c>
+      <c r="I22" s="2">
         <v>12</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>16</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="23"/>
-      <c r="B23" s="3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>17280</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>11221.56</v>
-      </c>
-      <c r="F23" s="5">
+        <v>11221.560000000001</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="3"/>
         <v>4750.26</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>1583.42</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" si="1"/>
-        <v>623.42</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>623.42000000000007</v>
+      </c>
+      <c r="I23" s="2">
         <v>18</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>15</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="23"/>
-      <c r="B24" s="3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="2">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>900</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="2"/>
-        <v>53.73</v>
-      </c>
-      <c r="F24" s="5">
+        <v>53.730000000000018</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="3"/>
-        <v>317.91</v>
-      </c>
-      <c r="G24" s="5">
-        <v>317.91</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="1"/>
-        <v>17.91</v>
-      </c>
-      <c r="I24" s="3">
+        <v>317.91000000000003</v>
+      </c>
+      <c r="G24" s="4">
+        <v>317.91000000000003</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>17.910000000000007</v>
+      </c>
+      <c r="I24" s="2">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>11</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="23"/>
-      <c r="B25" s="3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>500</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="2"/>
-        <v>29.86</v>
-      </c>
-      <c r="F25" s="5">
+        <v>29.860000000000014</v>
+      </c>
+      <c r="F25" s="4">
         <f t="shared" si="3"/>
         <v>529.86</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>176.62</v>
       </c>
-      <c r="H25" s="5">
-        <f t="shared" si="1"/>
-        <v>9.95333333333334</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>9.9533333333333385</v>
+      </c>
+      <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>3</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>10</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="23"/>
-      <c r="B26" s="3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="2">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1400</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
-        <v>83.5899999999999</v>
-      </c>
-      <c r="F26" s="5">
+        <v>83.589999999999918</v>
+      </c>
+      <c r="F26" s="4">
         <f t="shared" si="3"/>
         <v>494.53</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>494.53</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="1"/>
-        <v>27.8633333333333</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>27.863333333333305</v>
+      </c>
+      <c r="I26" s="2">
         <v>3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>1</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>13</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="23"/>
-      <c r="B27" s="3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="2">
         <v>28</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1100</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="2"/>
-        <v>65.6800000000001</v>
-      </c>
-      <c r="F27" s="5">
+        <v>65.680000000000064</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="3"/>
         <v>777.12</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>388.56</v>
       </c>
-      <c r="H27" s="5">
-        <f t="shared" si="1"/>
-        <v>21.8933333333334</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>21.893333333333356</v>
+      </c>
+      <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>16</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="23"/>
-      <c r="B28" s="3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="2">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1800</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="2"/>
-        <v>107.46</v>
-      </c>
-      <c r="F28" s="5">
+        <v>107.46000000000004</v>
+      </c>
+      <c r="F28" s="4">
         <f t="shared" si="3"/>
-        <v>1271.64</v>
-      </c>
-      <c r="G28" s="5">
-        <v>635.82</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="1"/>
-        <v>35.82</v>
-      </c>
-      <c r="I28" s="3">
+        <v>1271.6400000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>635.82000000000005</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>35.820000000000014</v>
+      </c>
+      <c r="I28" s="2">
         <v>3</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>17</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="23"/>
-      <c r="B29" s="3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="2">
         <v>30</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2600</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="2"/>
-        <v>155.23</v>
-      </c>
-      <c r="F29" s="5">
+        <v>155.23000000000002</v>
+      </c>
+      <c r="F29" s="4">
         <f t="shared" si="3"/>
         <v>2755.23</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>918.41</v>
       </c>
-      <c r="H29" s="5">
-        <f t="shared" si="1"/>
-        <v>51.7433333333333</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>51.743333333333339</v>
+      </c>
+      <c r="I29" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>14</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="23"/>
-      <c r="B30" s="3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="2">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>800</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="2"/>
-        <v>47.77</v>
-      </c>
-      <c r="F30" s="5">
+        <v>47.769999999999982</v>
+      </c>
+      <c r="F30" s="4">
         <f t="shared" si="3"/>
-        <v>282.59</v>
-      </c>
-      <c r="G30" s="5">
-        <v>282.59</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="1"/>
-        <v>15.9233333333333</v>
-      </c>
-      <c r="I30" s="3">
+        <v>282.58999999999997</v>
+      </c>
+      <c r="G30" s="4">
+        <v>282.58999999999997</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>15.923333333333327</v>
+      </c>
+      <c r="I30" s="2">
         <v>3</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>18</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="23"/>
-      <c r="B31" s="10">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="8">
         <v>32</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="14">
         <v>1500</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="14">
         <f t="shared" si="2"/>
-        <v>503.84</v>
-      </c>
-      <c r="F31" s="24">
+        <v>503.83999999999992</v>
+      </c>
+      <c r="F31" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="14">
         <v>2003.84</v>
       </c>
-      <c r="H31" s="24">
-        <f t="shared" si="1"/>
-        <v>503.84</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="H31" s="14">
+        <f t="shared" si="1"/>
+        <v>503.83999999999992</v>
+      </c>
+      <c r="I31" s="8">
         <v>1</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="8">
         <v>0</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="8">
         <v>9</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="23"/>
-      <c r="B32" s="3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="2">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>2150</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="3"/>
         <v>2280</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>760</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>3</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="23"/>
-      <c r="B33" s="3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="2">
         <v>34</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>1300</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="2"/>
-        <v>401.36</v>
-      </c>
-      <c r="F33" s="5">
+        <v>401.3599999999999</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="3"/>
         <v>1512.32</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>94.52</v>
       </c>
-      <c r="H33" s="5">
-        <f t="shared" si="1"/>
-        <v>22.2977777777778</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>22.297777777777771</v>
+      </c>
+      <c r="I33" s="2">
         <v>18</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>16</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>15</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="23"/>
-      <c r="B34" s="3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="2">
         <v>35</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>400</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="2"/>
-        <v>43.04</v>
-      </c>
-      <c r="F34" s="5">
+        <v>43.04000000000002</v>
+      </c>
+      <c r="F34" s="4">
         <f t="shared" si="3"/>
         <v>295.36</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>73.84</v>
       </c>
-      <c r="H34" s="5">
-        <f t="shared" si="1"/>
-        <v>7.17333333333334</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1733333333333364</v>
+      </c>
+      <c r="I34" s="2">
         <v>6</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>4</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>6</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="23"/>
-      <c r="B35" s="3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="2">
         <v>36</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>1300</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="2"/>
-        <v>92.48</v>
-      </c>
-      <c r="F35" s="5">
+        <v>92.480000000000018</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="3"/>
         <v>696.24</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>232.08</v>
       </c>
-      <c r="H35" s="5">
-        <f t="shared" si="1"/>
-        <v>15.4133333333333</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35" s="4">
+        <f t="shared" si="1"/>
+        <v>15.413333333333336</v>
+      </c>
+      <c r="I35" s="2">
         <v>6</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>6</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="23"/>
-      <c r="B36" s="3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="2">
         <v>37</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>5100</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="2"/>
-        <v>1048.32</v>
-      </c>
-      <c r="F36" s="5">
+        <v>1048.3199999999997</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="3"/>
         <v>2049.44</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>512.36</v>
       </c>
-      <c r="H36" s="5">
-        <f t="shared" si="1"/>
-        <v>87.36</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="H36" s="4">
+        <f t="shared" si="1"/>
+        <v>87.359999999999971</v>
+      </c>
+      <c r="I36" s="2">
         <v>12</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>4</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>14</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="23"/>
-      <c r="B37" s="3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="2">
         <v>38</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>2700</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="2"/>
         <v>555</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="3"/>
         <v>2712.5</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>271.25</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <f t="shared" si="1"/>
         <v>46.25</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>12</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>10</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>16</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="23"/>
-      <c r="B38" s="3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="2">
         <v>39</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>1100</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f t="shared" si="2"/>
-        <v>39.1600000000001</v>
-      </c>
-      <c r="F38" s="5">
+        <v>39.160000000000082</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="3"/>
         <v>189.86</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>189.86</v>
       </c>
-      <c r="H38" s="5">
-        <f t="shared" si="1"/>
-        <v>6.52666666666668</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5266666666666806</v>
+      </c>
+      <c r="I38" s="2">
         <v>6</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>1</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>16</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="23"/>
-      <c r="B39" s="3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="2">
         <v>40</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>1400</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <f t="shared" si="2"/>
-        <v>23.6200000000001</v>
-      </c>
-      <c r="F39" s="5">
+        <v>23.620000000000118</v>
+      </c>
+      <c r="F39" s="4">
         <f t="shared" si="3"/>
-        <v>711.81</v>
-      </c>
-      <c r="G39" s="5">
+        <v>711.81000000000006</v>
+      </c>
+      <c r="G39" s="4">
         <v>237.27</v>
       </c>
-      <c r="H39" s="5">
-        <f t="shared" si="1"/>
-        <v>3.93666666666669</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="H39" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9366666666666865</v>
+      </c>
+      <c r="I39" s="2">
         <v>6</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>3</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>31</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="23"/>
-      <c r="B40" s="3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="2">
         <v>41</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1200</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="2"/>
-        <v>8.66000000000008</v>
-      </c>
-      <c r="F40" s="5">
+        <v>8.6600000000000819</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="3"/>
-        <v>1208.66</v>
-      </c>
-      <c r="G40" s="5">
-        <v>604.33</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="1"/>
-        <v>4.33000000000004</v>
-      </c>
-      <c r="I40" s="3">
+        <v>1208.6600000000001</v>
+      </c>
+      <c r="G40" s="4">
+        <v>604.33000000000004</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="1"/>
+        <v>4.3300000000000409</v>
+      </c>
+      <c r="I40" s="2">
         <v>2</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>22</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="23"/>
-      <c r="B41" s="3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="2">
         <v>42</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>1400</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <f t="shared" si="2"/>
-        <v>13.4499999999998</v>
-      </c>
-      <c r="F41" s="5">
+        <v>13.449999999999818</v>
+      </c>
+      <c r="F41" s="4">
         <f t="shared" si="3"/>
         <v>942.3</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>471.15</v>
       </c>
-      <c r="H41" s="5">
-        <f t="shared" si="1"/>
-        <v>4.48333333333327</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="H41" s="4">
+        <f t="shared" si="1"/>
+        <v>4.483333333333273</v>
+      </c>
+      <c r="I41" s="2">
         <v>3</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>2</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>20</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="23"/>
-      <c r="B42" s="3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="2">
         <v>43</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>600</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <f t="shared" si="2"/>
         <v>4.32000000000005</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f t="shared" si="3"/>
-        <v>604.32</v>
-      </c>
-      <c r="G42" s="5">
-        <v>302.16</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="1"/>
-        <v>2.16000000000002</v>
-      </c>
-      <c r="I42" s="3">
+        <v>604.32000000000005</v>
+      </c>
+      <c r="G42" s="4">
+        <v>302.16000000000003</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="1"/>
+        <v>2.160000000000025</v>
+      </c>
+      <c r="I42" s="2">
         <v>2</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>2</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>19</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="23"/>
-      <c r="B43" s="3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="2">
         <v>44</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>1500</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <f t="shared" si="2"/>
-        <v>31.6800000000001</v>
-      </c>
-      <c r="F43" s="5">
+        <v>31.680000000000064</v>
+      </c>
+      <c r="F43" s="4">
         <f t="shared" si="3"/>
         <v>510.56</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>255.28</v>
       </c>
-      <c r="H43" s="5">
-        <f t="shared" si="1"/>
-        <v>5.28000000000001</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="H43" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2800000000000109</v>
+      </c>
+      <c r="I43" s="2">
         <v>6</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>18</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="23"/>
-      <c r="B44" s="3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="2">
         <v>45</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>5000</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <f t="shared" si="2"/>
-        <v>142.48</v>
-      </c>
-      <c r="F44" s="5">
+        <v>142.48000000000047</v>
+      </c>
+      <c r="F44" s="4">
         <f t="shared" si="3"/>
         <v>1714.16</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>428.54</v>
       </c>
-      <c r="H44" s="5">
-        <f t="shared" si="1"/>
-        <v>11.8733333333334</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="4">
+        <f t="shared" si="1"/>
+        <v>11.873333333333372</v>
+      </c>
+      <c r="I44" s="2">
         <v>12</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>17</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="23"/>
-      <c r="B45" s="3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="2">
         <v>46</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>1050</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <f t="shared" si="2"/>
-        <v>10.0799999999999</v>
-      </c>
-      <c r="F45" s="5">
+        <v>10.079999999999927</v>
+      </c>
+      <c r="F45" s="4">
         <f t="shared" si="3"/>
         <v>353.36</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>353.36</v>
       </c>
-      <c r="H45" s="5">
-        <f t="shared" si="1"/>
-        <v>3.35999999999998</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="H45" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3599999999999759</v>
+      </c>
+      <c r="I45" s="2">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>1</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>17</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="23"/>
-      <c r="B46" s="3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="2">
         <v>47</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>1000</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="2"/>
-        <v>14.4499999999999</v>
-      </c>
-      <c r="F46" s="5">
+        <v>14.449999999999932</v>
+      </c>
+      <c r="F46" s="4">
         <f t="shared" si="3"/>
         <v>405.78</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>202.89</v>
       </c>
-      <c r="H46" s="5">
-        <f t="shared" si="1"/>
-        <v>2.88999999999999</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="H46" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8899999999999864</v>
+      </c>
+      <c r="I46" s="2">
         <v>5</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>2</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>16</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="23"/>
-      <c r="B47" s="3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="2">
         <v>48</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>5000</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="2"/>
-        <v>142.48</v>
-      </c>
-      <c r="F47" s="5">
+        <v>142.48000000000047</v>
+      </c>
+      <c r="F47" s="4">
         <f t="shared" si="3"/>
-        <v>2142.7</v>
-      </c>
-      <c r="G47" s="5">
+        <v>2142.7000000000003</v>
+      </c>
+      <c r="G47" s="4">
         <v>428.54</v>
       </c>
-      <c r="H47" s="5">
-        <f t="shared" si="1"/>
-        <v>11.8733333333334</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="4">
+        <f t="shared" si="1"/>
+        <v>11.873333333333372</v>
+      </c>
+      <c r="I47" s="2">
         <v>12</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>14</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="23"/>
-      <c r="B48" s="3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="2">
         <v>49</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>30000</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>7831.67</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>37831.67</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>1892</v>
       </c>
-      <c r="H48" s="5">
-        <f t="shared" si="1"/>
-        <v>391.5835</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="H48" s="4">
+        <f t="shared" si="1"/>
+        <v>391.58350000000002</v>
+      </c>
+      <c r="I48" s="2">
         <v>20</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>20</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>12</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="23"/>
-      <c r="B49" s="3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="2">
         <v>50</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>17000</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>11598.95</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>4500</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>15</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="23"/>
-      <c r="B50" s="3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="2">
         <v>51</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>13000</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>13000</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>4500</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>6</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="23"/>
-      <c r="B51" s="3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="2">
         <v>52</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>11798</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>11800</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>2000</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>10</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="23"/>
-      <c r="B52" s="3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="2">
         <v>53</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>4150</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>4150</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>4150</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>0</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>1</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>1</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>21</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="25"/>
-      <c r="B53" s="18" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="10">
         <v>51</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="15">
         <f>SUM(D2:D49)</f>
         <v>261444.2</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="15">
         <f>SUM(E2:E49)</f>
-        <v>56697.24</v>
-      </c>
-      <c r="F53" s="26">
+        <v>56697.240000000013</v>
+      </c>
+      <c r="F53" s="15">
         <f>SUM(F2:F49)</f>
-        <v>155741.73</v>
-      </c>
-      <c r="G53" s="26">
+        <v>155741.73000000001</v>
+      </c>
+      <c r="G53" s="15">
         <f>SUM(G2:G49)</f>
         <v>46191.69</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="15">
         <f>SUM(H2:H49)</f>
-        <v>6077.85127777778</v>
-      </c>
-      <c r="I53" s="3" t="s">
+        <v>6077.851277777776</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>30000</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>30000</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>3</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="23"/>
-      <c r="B55" s="3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>48750.16</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>48750.16</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>7</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="23"/>
-      <c r="B56" s="3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="5">
-        <v>20427.65</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="D56" s="4">
+        <v>20427.650000000001</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="5">
-        <v>20427.65</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="F56" s="4">
+        <v>20427.650000000001</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>7</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="23"/>
-      <c r="B57" s="3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>25000</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>24000</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>5</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L57" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="23"/>
-      <c r="B58" s="18" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="10">
         <v>4</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="15">
         <f>SUM(D54:D57)</f>
         <v>124177.81</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="15">
         <f>SUM(F54:F57)</f>
         <v>123177.81</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="15">
         <f>SUM(G7:G57)</f>
-        <v>100207.48</v>
-      </c>
-      <c r="H58" s="26">
+        <v>100207.48000000001</v>
+      </c>
+      <c r="H58" s="15">
         <f>SUM(H7:H57)</f>
-        <v>11946.9692222222</v>
-      </c>
-      <c r="I58" s="3" t="s">
+        <v>11946.969222222218</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="28" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="3">
+      <c r="B59" s="10"/>
+      <c r="C59" s="2">
         <v>55</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <f>D53+D58</f>
         <v>385622.01</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="4">
         <f>F58+F53</f>
-        <v>278919.54</v>
-      </c>
-      <c r="G59" s="5">
+        <v>278919.54000000004</v>
+      </c>
+      <c r="G59" s="4">
         <f>G53+25800</f>
         <v>71991.69</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3822,1095 +3236,1089 @@
     <mergeCell ref="A2:A53"/>
     <mergeCell ref="A54:A58"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.36328125" style="1" customWidth="1"/>
     <col min="7" max="20" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>D4</f>
         <v>628.39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>628.39</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="21">
         <f>D5+D6</f>
         <v>12982.75</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1982.75</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>11000</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="22">
         <f>D8+D7</f>
         <v>2838.67</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1000</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1838.67</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="21">
         <f>D9+D10+D11+D12</f>
         <v>6805.92</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2500</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>73.84</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>232.08</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>4000</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="F12" s="8"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="21">
         <f>D13+D14+D15</f>
-        <v>11974.62</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>11974.619999999999</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>174.62</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>6800</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5000</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <f>D16</f>
         <v>760</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>760</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="F16" s="8"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>D17</f>
         <v>2003.84</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>2003.84</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="F17" s="8"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
         <v>10</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="21">
         <f>D18+D19</f>
         <v>2176.62</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>176.62</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>2000</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="F19" s="8"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f>D20</f>
-        <v>317.91</v>
-      </c>
-      <c r="C20" s="8" t="s">
+        <v>317.91000000000003</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="9">
-        <v>317.91</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="7">
+        <v>317.91000000000003</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
+      <c r="F20" s="8"/>
+      <c r="G20" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
         <v>12</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="21">
         <f>D21+D22</f>
         <v>3549.5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>1657.5</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>1892</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7">
+      <c r="F22" s="8"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>13</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="25">
         <f>D23+D26+D24+D25</f>
         <v>7261.13</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>2266.6</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>1700</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="3" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>2800</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="8" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>494.53</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7">
+      <c r="F26" s="8"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
         <v>14</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="25">
         <f>D27+D28+D30+D29</f>
         <v>4281.71</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>2422.4</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>918.41</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="8" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>512.36</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="8" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>428.54</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="7">
+      <c r="F30" s="9"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
         <v>15</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="25">
         <f>D31+D32+D33+D34</f>
-        <v>6937.94</v>
-      </c>
-      <c r="C31" s="8" t="s">
+        <v>6937.9400000000005</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>1583.42</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>94.52</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>4500</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="8" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>760</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7">
+      <c r="F34" s="9"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>16</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="25">
         <f>D35+D36+D37+D38+D40+D41+D39</f>
         <v>3307.04</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>993.02</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="8" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>867.24</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="8" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <v>394.22</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="8" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>388.56</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="8" t="s">
+      <c r="F38" s="9"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>271.25</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="8" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>189.86</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="4"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="8" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>202.89</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7">
+      <c r="F41" s="9"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
         <v>17</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="25">
         <f>D42+D43+D44+D45+D46</f>
-        <v>5734.93</v>
-      </c>
-      <c r="C42" s="8" t="s">
+        <v>5734.9299999999994</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>1220.21</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="8" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <v>3097</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="8" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="9">
-        <v>635.82</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="7">
+        <v>635.82000000000005</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="8" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="7">
         <v>428.54</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="8" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="7">
         <v>353.36</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="7">
+      <c r="F46" s="9"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
         <v>18</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="25">
         <f>D47+D48+D49</f>
         <v>1229.81</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="7">
         <v>691.94</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="9">
-        <v>282.59</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="7">
+        <v>282.58999999999997</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="7">
         <v>255.28</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3">
+      <c r="F49" s="9"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>19</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <f>D50</f>
-        <v>302.16</v>
-      </c>
-      <c r="C50" s="8" t="s">
+        <v>302.16000000000003</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="9">
-        <v>302.16</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="7">
+        <v>302.16000000000003</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3">
+      <c r="F50" s="9"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>20</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <f>D51</f>
         <v>471.15</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="7">
         <v>471.15</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="7">
+      <c r="F51" s="9"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
         <v>21</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="22">
         <f>D52+D53+D54+D55+D56+D57+D58</f>
         <v>8996</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="9">
-        <v>1083.1</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="7">
+        <v>1083.0999999999999</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>382.88</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="7">
         <v>556.91</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="7">
         <v>1059.28</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="8" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="7">
         <v>1064.42</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="8" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>699.41</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="7">
         <v>4150</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="7">
+      <c r="F58" s="9"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
         <v>22</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="22">
         <f>D59+D60</f>
         <v>1364.33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="7">
         <v>760</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="9">
-        <v>604.33</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="D60" s="7">
+        <v>604.33000000000004</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="3">
+      <c r="F60" s="9"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>31</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <f>D61</f>
         <v>237.27</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="7">
         <v>237.27</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="18">
+      <c r="F61" s="9"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>21</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="10">
         <f>SUM(B4:B61)</f>
-        <v>84161.69</v>
-      </c>
-      <c r="C62" s="18">
+        <v>84161.689999999988</v>
+      </c>
+      <c r="C62" s="10">
         <v>57</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="10">
         <f>SUM(D4:D61)</f>
-        <v>84161.69</v>
-      </c>
-      <c r="E62" s="18">
+        <v>84161.690000000017</v>
+      </c>
+      <c r="E62" s="10">
         <v>12</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:H2"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A52:A58"/>
@@ -4927,12 +4335,18 @@
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>